--- a/Supervised_Learning/Scorecard - F1 values.xlsx
+++ b/Supervised_Learning/Scorecard - F1 values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfred\Documents\GitHub\DSaML_Projects\Supervised_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7AF1CC-B0B4-435E-BF9F-E584316358FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D7CF6-4FFF-4D39-B496-B8EB52D69314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
   </bookViews>
@@ -95,6 +95,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jfred</author>
+    <author>tc={F20D58CD-9B63-4FB1-B374-C922F2398BE4}</author>
   </authors>
   <commentList>
     <comment ref="A4" authorId="0" shapeId="0" xr:uid="{017F8F1B-403E-475E-9027-822468B23420}">
@@ -141,7 +142,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-2nd Trial - Grid Search, Hyperparameters set for each model, Feature Selection with 6 Features chosen. Number of selected Features varied in each iteration</t>
+2nd Trial - Grid Search, Hyperparameters set to standard, Feature Selection with 6 Features chosen. Number of selected Features varied in each iteration</t>
         </r>
       </text>
     </comment>
@@ -169,12 +170,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{F20D58CD-9B63-4FB1-B374-C922F2398BE4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Feature Selection w/10 Features, Grid Search for Hyper Parameters
+Reply:
+    4+10 (selected via Feature Selection) +1 (CheckOut - Randomly choosen)
+Reply:
+    Reason - Go Big or Go Home!</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="71">
   <si>
     <t>RoomType</t>
   </si>
@@ -317,16 +330,10 @@
     <t>ExtraTrees</t>
   </si>
   <si>
-    <t>Baseline - 8 Features</t>
-  </si>
-  <si>
     <t>Baseline 2.0 - 10 Features</t>
   </si>
   <si>
     <t>Baseline 2.0 - 10 Features (inverted)</t>
-  </si>
-  <si>
-    <t>Baseline 3.0 - 11 Features</t>
   </si>
   <si>
     <t>1st Trial</t>
@@ -376,6 +383,24 @@
   <si>
     <t>Testing Models (Iteration #2.7)</t>
   </si>
+  <si>
+    <t>Feature Baseline - 8 Features</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>YOLO</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Baseline 3.0 - 14+1 Features</t>
+  </si>
 </sst>
 </file>
 
@@ -383,9 +408,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +479,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -499,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -797,11 +829,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,15 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1069,15 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,15 +1293,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1178,7 +1377,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,9 +1413,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,126 +1428,219 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1696,6 +1984,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B23" dT="2022-06-18T11:07:06.19" personId="{FF74CEFC-7228-486A-8FAB-52F85A3C597B}" id="{F20D58CD-9B63-4FB1-B374-C922F2398BE4}">
+    <text>Feature Selection w/10 Features, Grid Search for Hyper Parameters</text>
+  </threadedComment>
+  <threadedComment ref="B23" dT="2022-06-18T11:13:33.96" personId="{FF74CEFC-7228-486A-8FAB-52F85A3C597B}" id="{BB34CA19-D269-4D4C-9EA7-21EDC8DFA9D4}" parentId="{F20D58CD-9B63-4FB1-B374-C922F2398BE4}">
+    <text>4+10 (selected via Feature Selection) +1 (CheckOut - Randomly choosen)</text>
+  </threadedComment>
+  <threadedComment ref="B23" dT="2022-06-18T11:13:50.70" personId="{FF74CEFC-7228-486A-8FAB-52F85A3C597B}" id="{5E471599-9B1C-48D7-BD02-6F8F6780BD92}" parentId="{F20D58CD-9B63-4FB1-B374-C922F2398BE4}">
+    <text>Reason - Go Big or Go Home!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3850A2D-BCA2-4B7E-BA8A-D9154C599143}">
   <dimension ref="A1:AM84"/>
@@ -1786,15 +2088,15 @@
       <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="86" t="s">
+      <c r="AG1" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="88"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="178"/>
     </row>
     <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -4995,10 +5297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47D96A-367B-44D4-A207-423C8F54CE2A}">
-  <dimension ref="A1:AX39"/>
+  <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5025,250 +5327,255 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>58</v>
+      <c r="R1" s="227" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="228" t="s">
+        <v>56</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="AO1" s="51"/>
-    </row>
-    <row r="2" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="89" t="s">
+      <c r="AN1" s="51"/>
+    </row>
+    <row r="2" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="140" t="s">
+      <c r="L2" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="140" t="s">
+      <c r="O2" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="129" t="s">
+      <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="129" t="s">
+      <c r="Q2" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="154" t="s">
+      <c r="S2" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="90" t="s">
+      <c r="T2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="91" t="s">
+      <c r="V2" s="88" t="s">
         <v>45</v>
       </c>
       <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="108" t="s">
+      <c r="X2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="109" t="s">
+      <c r="Y2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="109" t="s">
+      <c r="Z2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="109" t="s">
+      <c r="AA2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="109" t="s">
+      <c r="AB2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="109" t="s">
+      <c r="AC2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="109" t="s">
+      <c r="AD2" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="109" t="s">
+      <c r="AE2" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" s="109" t="s">
+      <c r="AF2" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="109" t="s">
+      <c r="AG2" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="109" t="s">
+      <c r="AH2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="109" t="s">
+      <c r="AI2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="109" t="s">
+      <c r="AJ2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="109" t="s">
+      <c r="AK2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="109" t="s">
+      <c r="AL2" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="110" t="s">
+      <c r="AM2" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="169" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="170" t="s">
+      <c r="AP2" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="170" t="s">
+      <c r="AQ2" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="AS2" s="170" t="s">
+      <c r="AR2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AT2" s="170" t="s">
+      <c r="AS2" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="170" t="s">
+      <c r="AT2" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="170" t="s">
+      <c r="AU2" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="168" t="s">
+      <c r="AV2" s="157" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+    </row>
+    <row r="3" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="107"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="104"/>
       <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="171"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="64"/>
       <c r="AQ3" s="64"/>
       <c r="AR3" s="64"/>
       <c r="AS3" s="64"/>
       <c r="AT3" s="64"/>
       <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="172"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="AV3" s="161"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="122" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="57" t="s">
         <v>20</v>
       </c>
@@ -5279,115 +5586,118 @@
         <v>20</v>
       </c>
       <c r="F4" s="60"/>
-      <c r="G4" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="158" t="s">
+      <c r="G4" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="148" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
-      <c r="L4" s="159"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="61"/>
-      <c r="N4" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="61"/>
+      <c r="N4" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="149"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="154"/>
       <c r="T4" s="61"/>
       <c r="U4" s="61"/>
-      <c r="V4" s="128"/>
+      <c r="V4" s="119"/>
       <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="174">
+      <c r="X4" s="162">
         <v>0.79300000000000004</v>
       </c>
+      <c r="Y4" s="63">
+        <v>0.79200000000000004</v>
+      </c>
       <c r="Z4" s="63">
-        <v>0.79200000000000004</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="AA4" s="63">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AB4" s="63">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="AC4" s="63">
+        <v>0.874</v>
+      </c>
+      <c r="AD4" s="63">
+        <v>0.94</v>
+      </c>
+      <c r="AE4" s="63">
         <v>0.90700000000000003</v>
       </c>
-      <c r="AB4" s="63">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="AC4" s="63">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="AD4" s="63">
-        <v>0.874</v>
-      </c>
-      <c r="AE4" s="63">
-        <v>0.94</v>
-      </c>
       <c r="AF4" s="63">
-        <v>0.90700000000000003</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="AG4" s="63">
-        <v>0.80100000000000005</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="AH4" s="63">
-        <v>0.79900000000000004</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="AI4" s="63">
-        <v>0.93700000000000006</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="AJ4" s="63">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="AK4" s="63">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AL4" s="175">
+      <c r="AK4" s="163">
         <v>0.89600000000000002</v>
       </c>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="176">
-        <f>+Z4/Y4</f>
-        <v>0.99873896595208067</v>
-      </c>
-      <c r="AQ4" s="177">
-        <f>+AB4/AA4</f>
-        <v>0.95700110253583237</v>
-      </c>
-      <c r="AR4" s="177">
-        <f>+AD4/AC4</f>
-        <v>0.92584745762711873</v>
-      </c>
-      <c r="AS4" s="177">
-        <f>+AF4/AE4</f>
-        <v>0.96489361702127663</v>
-      </c>
-      <c r="AT4" s="177">
-        <f>+AH4/AG4</f>
-        <v>0.99750312109862671</v>
-      </c>
-      <c r="AU4" s="177">
-        <f>+AJ4/AI4</f>
-        <v>0.96905016008537881</v>
-      </c>
-      <c r="AV4" s="178">
-        <f>+AL4/AK4</f>
-        <v>0.96551724137931028</v>
-      </c>
-      <c r="AW4" s="99"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
-      <c r="B5" s="102" t="s">
-        <v>54</v>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="192">
+        <f>1-Y4/X4</f>
+        <v>1.2610340479193294E-3</v>
+      </c>
+      <c r="AP4" s="193">
+        <f>1-AA4/Z4</f>
+        <v>4.2998897464167629E-2</v>
+      </c>
+      <c r="AQ4" s="193">
+        <f>1-AC4/AB4</f>
+        <v>7.4152542372881269E-2</v>
+      </c>
+      <c r="AR4" s="193">
+        <f>1-AE4/AD4</f>
+        <v>3.5106382978723372E-2</v>
+      </c>
+      <c r="AS4" s="193">
+        <f>1-AG4/AF4</f>
+        <v>2.4968789013732895E-3</v>
+      </c>
+      <c r="AT4" s="193">
+        <f>1-AI4/AH4</f>
+        <v>3.0949839914621191E-2</v>
+      </c>
+      <c r="AU4" s="194">
+        <f>1-AK4/AJ4</f>
+        <v>3.4482758620689724E-2</v>
+      </c>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="183"/>
+      <c r="B5" s="99" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>20</v>
@@ -5399,368 +5709,379 @@
         <v>20</v>
       </c>
       <c r="F5" s="68"/>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="94" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="65"/>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="123" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
-      <c r="L5" s="143"/>
+      <c r="L5" s="134"/>
       <c r="M5" s="68"/>
-      <c r="N5" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="143"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="68"/>
+      <c r="N5" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="134"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="94"/>
       <c r="T5" s="68"/>
       <c r="U5" s="68"/>
-      <c r="V5" s="97"/>
+      <c r="V5" s="94"/>
       <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="166">
+      <c r="X5" s="156">
         <v>0.79500000000000004</v>
       </c>
+      <c r="Y5" s="71">
+        <v>0.79500000000000004</v>
+      </c>
       <c r="Z5" s="71">
-        <v>0.79500000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="AA5" s="71">
-        <v>0.90900000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="AB5" s="71">
+        <v>0.91</v>
+      </c>
+      <c r="AC5" s="71">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AD5" s="71">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AE5" s="71">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AF5" s="71">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AG5" s="71">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AH5" s="71">
+        <v>0.92</v>
+      </c>
+      <c r="AI5" s="71">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="AJ5" s="71">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AK5" s="164">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="195">
+        <f t="shared" ref="AO5:AO8" si="0">1-Y5/X5</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="191">
+        <f t="shared" ref="AP5:AP8" si="1">1-AA5/Z5</f>
+        <v>2.6402640264026389E-2</v>
+      </c>
+      <c r="AQ5" s="191">
+        <f t="shared" ref="AQ5:AQ8" si="2">1-AC5/AB5</f>
+        <v>2.5274725274725296E-2</v>
+      </c>
+      <c r="AR5" s="191">
+        <f t="shared" ref="AR5:AR8" si="3">1-AE5/AD5</f>
+        <v>2.2678185745140356E-2</v>
+      </c>
+      <c r="AS5" s="191">
+        <f>MAX(1-AG5/AF5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="191">
+        <f t="shared" ref="AT5:AT8" si="4">1-AI5/AH5</f>
+        <v>1.413043478260867E-2</v>
+      </c>
+      <c r="AU5" s="196">
+        <f t="shared" ref="AU5:AU8" si="5">1-AK5/AJ5</f>
+        <v>1.2048192771084376E-2</v>
+      </c>
+      <c r="AV5" s="208"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="183"/>
+      <c r="B6" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="111"/>
+      <c r="T6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="214">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="Y6" s="213">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="Z6" s="71">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AA6" s="71">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AB6" s="71">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="AC6" s="71">
+        <v>0.878</v>
+      </c>
+      <c r="AD6" s="71">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="AE6" s="71">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AF6" s="188">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AG6" s="188">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AH6" s="170">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="AI6" s="170">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="AJ6" s="71">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="AK6" s="164">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="195">
+        <f t="shared" si="0"/>
+        <v>2.4660912453761119E-3</v>
+      </c>
+      <c r="AP6" s="191">
+        <f t="shared" si="1"/>
+        <v>3.6105032822757122E-2</v>
+      </c>
+      <c r="AQ6" s="191">
+        <f t="shared" si="2"/>
+        <v>9.2975206611570216E-2</v>
+      </c>
+      <c r="AR6" s="191">
+        <f t="shared" si="3"/>
+        <v>5.0308008213552302E-2</v>
+      </c>
+      <c r="AS6" s="191">
+        <f t="shared" ref="AS6:AS8" si="6">1-AG6/AF6</f>
+        <v>2.4449877750610804E-3</v>
+      </c>
+      <c r="AT6" s="225">
+        <f t="shared" si="4"/>
+        <v>4.6986721144024468E-2</v>
+      </c>
+      <c r="AU6" s="196">
+        <f t="shared" si="5"/>
+        <v>5.0672182006204713E-2</v>
+      </c>
+      <c r="AV6" s="208"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="183"/>
+      <c r="B7" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="110"/>
+      <c r="I7" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="111"/>
+      <c r="T7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="156">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="Y7" s="71">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="Z7" s="213">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AA7" s="213">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AB7" s="213">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AC7" s="213">
         <v>0.88500000000000001</v>
       </c>
-      <c r="AC5" s="71">
-        <v>0.91</v>
-      </c>
-      <c r="AD5" s="71">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="AE5" s="71">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="AF5" s="71">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="AG5" s="71">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="AH5" s="71">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AI5" s="71">
-        <v>0.92</v>
-      </c>
-      <c r="AJ5" s="71">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="AK5" s="71">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="AL5" s="179">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="167">
-        <f>+Z5/Y5</f>
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="173">
-        <f>+AB5/AA5</f>
-        <v>0.97359735973597361</v>
-      </c>
-      <c r="AR5" s="173">
-        <f>+AD5/AC5</f>
-        <v>0.9747252747252747</v>
-      </c>
-      <c r="AS5" s="173">
-        <f>+AF5/AE5</f>
-        <v>0.97732181425485964</v>
-      </c>
-      <c r="AT5" s="173">
-        <f>MIN(+AH5/AG5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AU5" s="173">
-        <f>+AJ5/AI5</f>
-        <v>0.98586956521739133</v>
-      </c>
-      <c r="AV5" s="180">
-        <f>+AL5/AK5</f>
-        <v>0.98795180722891562</v>
-      </c>
-      <c r="AW5" s="99"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
-      <c r="B6" s="102" t="s">
+      <c r="AD7" s="170">
+        <v>0.97</v>
+      </c>
+      <c r="AE7" s="170">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="AF7" s="213">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AG7" s="213">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AH7" s="71">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AI7" s="71">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AJ7" s="71">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AK7" s="164">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="195">
+        <f t="shared" si="0"/>
+        <v>2.4721878862793423E-3</v>
+      </c>
+      <c r="AP7" s="191">
+        <f t="shared" si="1"/>
+        <v>3.1385281385281405E-2</v>
+      </c>
+      <c r="AQ7" s="191">
+        <f t="shared" si="2"/>
+        <v>8.3850931677018625E-2</v>
+      </c>
+      <c r="AR7" s="225">
+        <f t="shared" si="3"/>
+        <v>4.3298969072164906E-2</v>
+      </c>
+      <c r="AS7" s="191">
+        <f t="shared" si="6"/>
+        <v>1.223990208078285E-3</v>
+      </c>
+      <c r="AT7" s="191">
+        <f t="shared" si="4"/>
+        <v>4.2181069958847628E-2</v>
+      </c>
+      <c r="AU7" s="196">
+        <f t="shared" si="5"/>
+        <v>2.2151898734177111E-2</v>
+      </c>
+      <c r="AV7" s="208"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+    </row>
+    <row r="8" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="184"/>
+      <c r="B8" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="199">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="Z6" s="200">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="AA6" s="71">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="AB6" s="71">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="AC6" s="71">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="AD6" s="71">
-        <v>0.878</v>
-      </c>
-      <c r="AE6" s="71">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="AF6" s="71">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="AG6" s="71">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="AH6" s="71">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="AI6" s="71">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="AJ6" s="71">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="AK6" s="71">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="AL6" s="179">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="167">
-        <f>+Z6/Y6</f>
-        <v>0.99753390875462389</v>
-      </c>
-      <c r="AQ6" s="173">
-        <f>+AB6/AA6</f>
-        <v>0.96389496717724288</v>
-      </c>
-      <c r="AR6" s="173">
-        <f>+AD6/AC6</f>
-        <v>0.90702479338842978</v>
-      </c>
-      <c r="AS6" s="173">
-        <f>+AF6/AE6</f>
-        <v>0.9496919917864477</v>
-      </c>
-      <c r="AT6" s="173">
-        <f>MIN(+AH6/AG6,1)</f>
-        <v>0.99755501222493892</v>
-      </c>
-      <c r="AU6" s="173">
-        <f>+AJ6/AI6</f>
-        <v>0.95301327885597553</v>
-      </c>
-      <c r="AV6" s="180">
-        <f>+AL6/AK6</f>
-        <v>0.94932781799379529</v>
-      </c>
-      <c r="AW6" s="99"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
-      <c r="B7" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="166">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="Z7" s="71">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="AA7" s="200">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="AB7" s="200">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="AC7" s="200">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="AD7" s="200">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="AE7" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="AF7" s="71">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="AG7" s="71">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="AH7" s="71">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="AI7" s="71">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="AJ7" s="71">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="AK7" s="71">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="AL7" s="179">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="167">
-        <f>+Z7/Y7</f>
-        <v>0.99752781211372066</v>
-      </c>
-      <c r="AQ7" s="173">
-        <f>+AB7/AA7</f>
-        <v>0.9686147186147186</v>
-      </c>
-      <c r="AR7" s="173">
-        <f>+AD7/AC7</f>
-        <v>0.91614906832298137</v>
-      </c>
-      <c r="AS7" s="173">
-        <f>+AF7/AE7</f>
-        <v>0.95670103092783509</v>
-      </c>
-      <c r="AT7" s="173">
-        <f>MIN(+AH7/AG7,1)</f>
-        <v>0.99877600979192172</v>
-      </c>
-      <c r="AU7" s="173">
-        <f>+AJ7/AI7</f>
-        <v>0.95781893004115237</v>
-      </c>
-      <c r="AV7" s="180">
-        <f>+AL7/AK7</f>
-        <v>0.97784810126582289</v>
-      </c>
-      <c r="AW7" s="99"/>
-    </row>
-    <row r="8" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="114"/>
-      <c r="B8" s="104" t="s">
-        <v>62</v>
-      </c>
       <c r="C8" s="73" t="s">
         <v>20</v>
       </c>
@@ -5771,145 +6092,148 @@
         <v>20</v>
       </c>
       <c r="F8" s="76"/>
-      <c r="G8" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="134" t="s">
+      <c r="G8" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="150"/>
+      <c r="I8" s="125" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
-      <c r="L8" s="161" t="s">
+      <c r="L8" s="151" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="161" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="162" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="162" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="46"/>
+      <c r="N8" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="153"/>
       <c r="T8" s="46" t="s">
         <v>20</v>
       </c>
       <c r="U8" s="46"/>
-      <c r="V8" s="163"/>
+      <c r="V8" s="153"/>
       <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="181">
+      <c r="X8" s="165">
         <v>0.81</v>
       </c>
+      <c r="Y8" s="79">
+        <v>0.80900000000000005</v>
+      </c>
       <c r="Z8" s="79">
-        <v>0.80900000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="AA8" s="79">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AB8" s="79">
-        <v>0.89</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="AC8" s="79">
-        <v>0.96599999999999997</v>
+        <v>0.877</v>
       </c>
       <c r="AD8" s="79">
-        <v>0.877</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="AE8" s="79">
-        <v>0.97199999999999998</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="AF8" s="79">
-        <v>0.92400000000000004</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AG8" s="79">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="AH8" s="79">
         <v>0.81399999999999995</v>
       </c>
-      <c r="AI8" s="79">
+      <c r="AH8" s="212">
         <v>0.97299999999999998</v>
       </c>
-      <c r="AJ8" s="79">
+      <c r="AI8" s="212">
         <v>0.93200000000000005</v>
       </c>
-      <c r="AK8" s="79">
+      <c r="AJ8" s="174">
         <v>0.95099999999999996</v>
       </c>
-      <c r="AL8" s="182">
+      <c r="AK8" s="175">
         <v>0.92300000000000004</v>
       </c>
+      <c r="AL8" s="90"/>
       <c r="AM8" s="93"/>
-      <c r="AN8" s="96"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="183">
-        <f>+Z8/Y8</f>
-        <v>0.99876543209876545</v>
-      </c>
-      <c r="AQ8" s="184">
-        <f>+AB8/AA8</f>
-        <v>0.96739130434782605</v>
-      </c>
-      <c r="AR8" s="184">
-        <f>+AD8/AC8</f>
-        <v>0.90786749482401663</v>
-      </c>
-      <c r="AS8" s="184">
-        <f>+AF8/AE8</f>
-        <v>0.9506172839506174</v>
-      </c>
-      <c r="AT8" s="184">
-        <f>MIN(+AH8/AG8,1)</f>
-        <v>0.99754901960784315</v>
-      </c>
-      <c r="AU8" s="184">
-        <f>+AJ8/AI8</f>
-        <v>0.9578622816032889</v>
-      </c>
-      <c r="AV8" s="185">
-        <f>+AL8/AK8</f>
-        <v>0.97055730809674035</v>
-      </c>
-      <c r="AW8" s="99"/>
-    </row>
-    <row r="9" spans="1:49" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="197">
+        <f t="shared" si="0"/>
+        <v>1.2345679012345512E-3</v>
+      </c>
+      <c r="AP8" s="198">
+        <f t="shared" si="1"/>
+        <v>3.2608695652173947E-2</v>
+      </c>
+      <c r="AQ8" s="198">
+        <f t="shared" si="2"/>
+        <v>9.213250517598337E-2</v>
+      </c>
+      <c r="AR8" s="198">
+        <f t="shared" si="3"/>
+        <v>4.9382716049382602E-2</v>
+      </c>
+      <c r="AS8" s="198">
+        <f t="shared" si="6"/>
+        <v>2.450980392156854E-3</v>
+      </c>
+      <c r="AT8" s="198">
+        <f t="shared" si="4"/>
+        <v>4.2137718396711099E-2</v>
+      </c>
+      <c r="AU8" s="223">
+        <f t="shared" si="5"/>
+        <v>2.9442691903259655E-2</v>
+      </c>
+      <c r="AV8" s="208"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="51"/>
+    </row>
+    <row r="9" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
       <c r="F9" s="72"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="133"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="72"/>
       <c r="K9" s="72"/>
-      <c r="L9" s="144"/>
+      <c r="L9" s="135"/>
       <c r="M9" s="72"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="98"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="72"/>
       <c r="Z9" s="72"/>
       <c r="AA9" s="72"/>
       <c r="AB9" s="72"/>
@@ -5923,24 +6247,27 @@
       <c r="AJ9" s="72"/>
       <c r="AK9" s="72"/>
       <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="99"/>
-    </row>
-    <row r="10" spans="1:49" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="122" t="s">
-        <v>55</v>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="209"/>
+      <c r="AP9" s="167"/>
+      <c r="AQ9" s="167"/>
+      <c r="AR9" s="167"/>
+      <c r="AS9" s="167"/>
+      <c r="AT9" s="167"/>
+      <c r="AU9" s="167"/>
+      <c r="AV9" s="208"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51"/>
+    </row>
+    <row r="10" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>20</v>
@@ -5952,95 +6279,94 @@
         <v>20</v>
       </c>
       <c r="F10" s="60"/>
-      <c r="G10" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="157"/>
-      <c r="I10" s="158" t="s">
+      <c r="G10" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
-      <c r="L10" s="159" t="s">
+      <c r="L10" s="149" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="159" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="61"/>
+      <c r="N10" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="154"/>
       <c r="T10" s="61" t="s">
         <v>20</v>
       </c>
       <c r="U10" s="61"/>
-      <c r="V10" s="164"/>
+      <c r="V10" s="154"/>
       <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="98"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="72"/>
       <c r="Z10" s="72"/>
       <c r="AA10" s="72"/>
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="57">
+      <c r="AD10" s="57">
         <v>0.998</v>
       </c>
-      <c r="AF10" s="128">
+      <c r="AE10" s="119">
         <v>0.92300000000000004</v>
       </c>
+      <c r="AF10" s="72"/>
       <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="203">
+      <c r="AH10" s="215">
         <v>0.91200000000000003</v>
       </c>
-      <c r="AJ10" s="58">
+      <c r="AI10" s="216">
         <v>0.90800000000000003</v>
       </c>
-      <c r="AK10" s="60">
+      <c r="AJ10" s="60">
         <v>0.92900000000000005</v>
       </c>
-      <c r="AL10" s="128">
+      <c r="AK10" s="119">
         <v>0.91900000000000004</v>
       </c>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="186">
-        <f>+AF10/AE10</f>
-        <v>0.92484969939879769</v>
-      </c>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="189">
-        <f>+AJ10/AI10</f>
-        <v>0.99561403508771928</v>
-      </c>
-      <c r="AV10" s="190">
-        <f>+AL10/AK10</f>
-        <v>0.98923573735199133</v>
-      </c>
-      <c r="AW10" s="99"/>
-    </row>
-    <row r="11" spans="1:49" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="102" t="s">
-        <v>56</v>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="209"/>
+      <c r="AP10" s="167"/>
+      <c r="AQ10" s="167"/>
+      <c r="AR10" s="199">
+        <f>1-AE10/AD10</f>
+        <v>7.5150300601202313E-2</v>
+      </c>
+      <c r="AS10" s="167"/>
+      <c r="AT10" s="202">
+        <f>1-AI10/AH10</f>
+        <v>4.3859649122807154E-3</v>
+      </c>
+      <c r="AU10" s="203">
+        <f>1-AK10/AJ10</f>
+        <v>1.0764262648008671E-2</v>
+      </c>
+      <c r="AV10" s="208"/>
+    </row>
+    <row r="11" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="180"/>
+      <c r="B11" s="99" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>20</v>
@@ -6052,91 +6378,90 @@
         <v>20</v>
       </c>
       <c r="F11" s="68"/>
-      <c r="G11" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="131" t="s">
+      <c r="G11" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="109"/>
+      <c r="I11" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
-      <c r="L11" s="142" t="s">
+      <c r="L11" s="133" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
+      <c r="N11" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="109"/>
+      <c r="S11" s="112"/>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="118"/>
+      <c r="V11" s="112"/>
       <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="98"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="72"/>
       <c r="Z11" s="72"/>
       <c r="AA11" s="72"/>
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="65">
+      <c r="AD11" s="65">
         <v>0.97899999999999998</v>
       </c>
-      <c r="AF11" s="97">
+      <c r="AE11" s="94">
         <v>0.91900000000000004</v>
       </c>
+      <c r="AF11" s="72"/>
       <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="65">
+      <c r="AH11" s="65">
         <v>0.90800000000000003</v>
       </c>
+      <c r="AI11" s="68">
+        <v>0.90600000000000003</v>
+      </c>
       <c r="AJ11" s="68">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="AK11" s="68">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AL11" s="97">
+      <c r="AK11" s="94">
         <v>0.91600000000000004</v>
       </c>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="187">
-        <f t="shared" ref="AS11:AS21" si="0">+AF11/AE11</f>
-        <v>0.93871297242083762</v>
-      </c>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="191">
-        <f t="shared" ref="AU11:AU16" si="1">+AJ11/AI11</f>
-        <v>0.99779735682819382</v>
-      </c>
-      <c r="AV11" s="192">
-        <f t="shared" ref="AV11:AV16" si="2">+AL11/AK11</f>
-        <v>0.9913419913419913</v>
-      </c>
-      <c r="AW11" s="99"/>
-    </row>
-    <row r="12" spans="1:49" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="102" t="s">
-        <v>57</v>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="209"/>
+      <c r="AP11" s="167"/>
+      <c r="AQ11" s="167"/>
+      <c r="AR11" s="200">
+        <f t="shared" ref="AR11:AR16" si="7">1-AE11/AD11</f>
+        <v>6.1287027579162379E-2</v>
+      </c>
+      <c r="AS11" s="167"/>
+      <c r="AT11" s="204">
+        <f t="shared" ref="AT11:AT16" si="8">1-AI11/AH11</f>
+        <v>2.2026431718061845E-3</v>
+      </c>
+      <c r="AU11" s="205">
+        <f t="shared" ref="AU11:AU16" si="9">1-AK11/AJ11</f>
+        <v>8.6580086580086979E-3</v>
+      </c>
+      <c r="AV11" s="208"/>
+    </row>
+    <row r="12" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="180"/>
+      <c r="B12" s="99" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>20</v>
@@ -6148,89 +6473,88 @@
         <v>20</v>
       </c>
       <c r="F12" s="68"/>
-      <c r="G12" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="131" t="s">
+      <c r="G12" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="109"/>
+      <c r="I12" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
-      <c r="L12" s="142" t="s">
+      <c r="L12" s="133" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="69"/>
-      <c r="N12" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
+      <c r="N12" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="109"/>
+      <c r="S12" s="112"/>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="118"/>
+      <c r="V12" s="112"/>
       <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="98"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="72"/>
       <c r="Z12" s="72"/>
       <c r="AA12" s="72"/>
       <c r="AB12" s="72"/>
       <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="65">
+      <c r="AD12" s="65">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AF12" s="97">
+      <c r="AE12" s="94">
         <v>0.91900000000000004</v>
       </c>
+      <c r="AF12" s="72"/>
       <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="65">
+      <c r="AH12" s="65">
         <v>0.90700000000000003</v>
       </c>
-      <c r="AJ12" s="68">
+      <c r="AI12" s="68">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AK12" s="66">
+      <c r="AJ12" s="217">
         <v>0.92700000000000005</v>
       </c>
-      <c r="AL12" s="204">
+      <c r="AK12" s="218">
         <v>0.92</v>
       </c>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="187">
-        <f t="shared" si="0"/>
-        <v>0.94256410256410261</v>
-      </c>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="191">
-        <f t="shared" si="1"/>
-        <v>0.99669239250275632</v>
-      </c>
-      <c r="AV12" s="192">
-        <f t="shared" si="2"/>
-        <v>0.99244875943905064</v>
-      </c>
-      <c r="AW12" s="99"/>
-    </row>
-    <row r="13" spans="1:49" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
-      <c r="B13" s="102" t="s">
-        <v>63</v>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="209"/>
+      <c r="AP12" s="167"/>
+      <c r="AQ12" s="167"/>
+      <c r="AR12" s="200">
+        <f t="shared" si="7"/>
+        <v>5.7435897435897387E-2</v>
+      </c>
+      <c r="AS12" s="167"/>
+      <c r="AT12" s="204">
+        <f t="shared" si="8"/>
+        <v>3.3076074972436809E-3</v>
+      </c>
+      <c r="AU12" s="205">
+        <f t="shared" si="9"/>
+        <v>7.5512405609493571E-3</v>
+      </c>
+      <c r="AV12" s="208"/>
+    </row>
+    <row r="13" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="180"/>
+      <c r="B13" s="99" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>20</v>
@@ -6242,91 +6566,90 @@
         <v>20</v>
       </c>
       <c r="F13" s="68"/>
-      <c r="G13" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="131" t="s">
+      <c r="G13" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="109"/>
+      <c r="I13" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
-      <c r="L13" s="142" t="s">
+      <c r="L13" s="133" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="69"/>
-      <c r="N13" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="69"/>
+      <c r="N13" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="112"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="118"/>
+      <c r="V13" s="112"/>
       <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="98"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="72"/>
       <c r="Z13" s="72"/>
       <c r="AA13" s="72"/>
       <c r="AB13" s="72"/>
       <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="65">
+      <c r="AD13" s="65">
         <v>0.98799999999999999</v>
       </c>
-      <c r="AF13" s="179">
+      <c r="AE13" s="164">
         <v>0.92</v>
       </c>
+      <c r="AF13" s="72"/>
       <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="65">
+      <c r="AH13" s="65">
         <v>0.90900000000000003</v>
       </c>
+      <c r="AI13" s="68">
+        <v>0.90400000000000003</v>
+      </c>
       <c r="AJ13" s="68">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="AK13" s="68">
         <v>0.92700000000000005</v>
       </c>
-      <c r="AL13" s="97">
+      <c r="AK13" s="94">
         <v>0.91800000000000004</v>
       </c>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="187">
-        <f t="shared" si="0"/>
-        <v>0.93117408906882593</v>
-      </c>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="191">
-        <f t="shared" si="1"/>
-        <v>0.99449944994499451</v>
-      </c>
-      <c r="AV13" s="192">
-        <f t="shared" si="2"/>
-        <v>0.99029126213592233</v>
-      </c>
-      <c r="AW13" s="99"/>
-    </row>
-    <row r="14" spans="1:49" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
-      <c r="B14" s="102" t="s">
-        <v>64</v>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="209"/>
+      <c r="AP13" s="167"/>
+      <c r="AQ13" s="167"/>
+      <c r="AR13" s="200">
+        <f t="shared" si="7"/>
+        <v>6.8825910931174072E-2</v>
+      </c>
+      <c r="AS13" s="167"/>
+      <c r="AT13" s="204">
+        <f t="shared" si="8"/>
+        <v>5.5005500550054931E-3</v>
+      </c>
+      <c r="AU13" s="205">
+        <f t="shared" si="9"/>
+        <v>9.7087378640776656E-3</v>
+      </c>
+      <c r="AV13" s="208"/>
+    </row>
+    <row r="14" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="180"/>
+      <c r="B14" s="99" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>20</v>
@@ -6338,91 +6661,90 @@
         <v>20</v>
       </c>
       <c r="F14" s="68"/>
-      <c r="G14" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="131" t="s">
+      <c r="G14" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="109"/>
+      <c r="I14" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="69"/>
       <c r="K14" s="69"/>
-      <c r="L14" s="142" t="s">
+      <c r="L14" s="133" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="69"/>
-      <c r="N14" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="N14" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="109"/>
+      <c r="S14" s="112"/>
       <c r="T14" s="69" t="s">
         <v>20</v>
       </c>
       <c r="U14" s="69"/>
-      <c r="V14" s="118"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="98"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="72"/>
       <c r="Z14" s="72"/>
       <c r="AA14" s="72"/>
       <c r="AB14" s="72"/>
       <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="166">
+      <c r="AD14" s="156">
         <v>0.99</v>
       </c>
-      <c r="AF14" s="97">
+      <c r="AE14" s="94">
         <v>0.92300000000000004</v>
       </c>
+      <c r="AF14" s="72"/>
       <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="65">
+      <c r="AH14" s="65">
         <v>0.91100000000000003</v>
       </c>
+      <c r="AI14" s="68">
+        <v>0.90700000000000003</v>
+      </c>
       <c r="AJ14" s="68">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="AK14" s="68">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AL14" s="97">
+      <c r="AK14" s="94">
         <v>0.91900000000000004</v>
       </c>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="187">
-        <f t="shared" si="0"/>
-        <v>0.93232323232323233</v>
-      </c>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="191">
-        <f t="shared" si="1"/>
-        <v>0.99560922063666302</v>
-      </c>
-      <c r="AV14" s="192">
-        <f t="shared" si="2"/>
-        <v>0.99030172413793105</v>
-      </c>
-      <c r="AW14" s="99"/>
-    </row>
-    <row r="15" spans="1:49" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
-      <c r="B15" s="102" t="s">
-        <v>65</v>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="209"/>
+      <c r="AP14" s="167"/>
+      <c r="AQ14" s="167"/>
+      <c r="AR14" s="200">
+        <f t="shared" si="7"/>
+        <v>6.7676767676767668E-2</v>
+      </c>
+      <c r="AS14" s="167"/>
+      <c r="AT14" s="204">
+        <f t="shared" si="8"/>
+        <v>4.3907793633369829E-3</v>
+      </c>
+      <c r="AU14" s="205">
+        <f t="shared" si="9"/>
+        <v>9.6982758620689502E-3</v>
+      </c>
+      <c r="AV14" s="208"/>
+    </row>
+    <row r="15" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="180"/>
+      <c r="B15" s="99" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>20</v>
@@ -6434,89 +6756,88 @@
         <v>20</v>
       </c>
       <c r="F15" s="68"/>
-      <c r="G15" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="131" t="s">
+      <c r="G15" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="109"/>
+      <c r="I15" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="69"/>
       <c r="K15" s="69"/>
-      <c r="L15" s="142"/>
+      <c r="L15" s="133"/>
       <c r="M15" s="69"/>
-      <c r="N15" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="69"/>
+      <c r="N15" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="112"/>
       <c r="T15" s="69"/>
       <c r="U15" s="69"/>
-      <c r="V15" s="118"/>
+      <c r="V15" s="112"/>
       <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="98"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="72"/>
       <c r="Z15" s="72"/>
       <c r="AA15" s="72"/>
       <c r="AB15" s="72"/>
       <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="65">
+      <c r="AD15" s="65">
         <v>0.96799999999999997</v>
       </c>
-      <c r="AF15" s="97">
+      <c r="AE15" s="94">
         <v>0.91200000000000003</v>
       </c>
+      <c r="AF15" s="72"/>
       <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="65">
+      <c r="AH15" s="65">
         <v>0.90300000000000002</v>
       </c>
+      <c r="AI15" s="68">
+        <v>0.89900000000000002</v>
+      </c>
       <c r="AJ15" s="68">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="AK15" s="68">
         <v>0.91400000000000003</v>
       </c>
-      <c r="AL15" s="97">
+      <c r="AK15" s="94">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="98"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="187">
-        <f t="shared" si="0"/>
-        <v>0.94214876033057859</v>
-      </c>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="191">
-        <f t="shared" si="1"/>
-        <v>0.99557032115171651</v>
-      </c>
-      <c r="AV15" s="192">
-        <f t="shared" si="2"/>
-        <v>0.98905908096280082</v>
-      </c>
-      <c r="AW15" s="99"/>
-    </row>
-    <row r="16" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="121"/>
-      <c r="B16" s="104" t="s">
-        <v>66</v>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="209"/>
+      <c r="AP15" s="167"/>
+      <c r="AQ15" s="167"/>
+      <c r="AR15" s="200">
+        <f t="shared" si="7"/>
+        <v>5.7851239669421406E-2</v>
+      </c>
+      <c r="AS15" s="167"/>
+      <c r="AT15" s="204">
+        <f t="shared" si="8"/>
+        <v>4.4296788482834915E-3</v>
+      </c>
+      <c r="AU15" s="205">
+        <f t="shared" si="9"/>
+        <v>1.0940919037199182E-2</v>
+      </c>
+      <c r="AV15" s="208"/>
+    </row>
+    <row r="16" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="181"/>
+      <c r="B16" s="101" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="73" t="s">
         <v>20</v>
@@ -6528,82 +6849,85 @@
         <v>20</v>
       </c>
       <c r="F16" s="76"/>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="47"/>
-      <c r="I16" s="134" t="s">
+      <c r="I16" s="125" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="151"/>
+      <c r="L16" s="142"/>
       <c r="M16" s="47"/>
-      <c r="N16" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="146"/>
-      <c r="P16" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="N16" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="137"/>
+      <c r="P16" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="43"/>
+      <c r="S16" s="108"/>
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
-      <c r="V16" s="111"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="201">
+      <c r="X16" s="92"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="219">
         <v>0.93200000000000005</v>
       </c>
-      <c r="AF16" s="202">
+      <c r="AE16" s="220">
         <v>0.90700000000000003</v>
       </c>
+      <c r="AF16" s="72"/>
       <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="73">
+      <c r="AH16" s="73">
         <v>0.89300000000000002</v>
       </c>
+      <c r="AI16" s="76">
+        <v>0.89200000000000002</v>
+      </c>
       <c r="AJ16" s="76">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="AK16" s="76">
         <v>0.90300000000000002</v>
       </c>
-      <c r="AL16" s="100">
+      <c r="AK16" s="97">
         <v>0.89800000000000002</v>
       </c>
+      <c r="AL16" s="90"/>
       <c r="AM16" s="93"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="98"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="188">
-        <f t="shared" si="0"/>
-        <v>0.97317596566523601</v>
-      </c>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="193">
-        <f t="shared" si="1"/>
-        <v>0.99888017917133254</v>
-      </c>
-      <c r="AV16" s="194">
-        <f t="shared" si="2"/>
-        <v>0.99446290143964566</v>
-      </c>
-      <c r="AW16" s="99"/>
-    </row>
-    <row r="17" spans="1:50" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="209"/>
+      <c r="AP16" s="167"/>
+      <c r="AQ16" s="167"/>
+      <c r="AR16" s="201">
+        <f t="shared" si="7"/>
+        <v>2.6824034334763991E-2</v>
+      </c>
+      <c r="AS16" s="167"/>
+      <c r="AT16" s="206">
+        <f t="shared" si="8"/>
+        <v>1.1198208286674616E-3</v>
+      </c>
+      <c r="AU16" s="207">
+        <f t="shared" si="9"/>
+        <v>5.5370985603543366E-3</v>
+      </c>
+      <c r="AV16" s="208"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+    </row>
+    <row r="17" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -6612,23 +6936,23 @@
       <c r="F17" s="72"/>
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
-      <c r="I17" s="133"/>
+      <c r="I17" s="124"/>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="144"/>
+      <c r="L17" s="135"/>
       <c r="M17" s="72"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
       <c r="T17" s="72"/>
       <c r="U17" s="72"/>
       <c r="V17" s="72"/>
       <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="98"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="72"/>
       <c r="Z17" s="72"/>
       <c r="AA17" s="72"/>
       <c r="AB17" s="72"/>
@@ -6642,109 +6966,115 @@
       <c r="AJ17" s="72"/>
       <c r="AK17" s="72"/>
       <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="98"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="99"/>
-    </row>
-    <row r="18" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="209"/>
+      <c r="AP17" s="167"/>
+      <c r="AQ17" s="167"/>
+      <c r="AR17" s="167"/>
+      <c r="AS17" s="167"/>
+      <c r="AT17" s="167"/>
+      <c r="AU17" s="167"/>
+      <c r="AV17" s="208"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+    </row>
+    <row r="18" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
-      <c r="B18" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="147"/>
-      <c r="P18" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="126"/>
+      <c r="B18" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="118"/>
+      <c r="I18" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="138"/>
+      <c r="P18" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="145"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="117"/>
       <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="98"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="72"/>
       <c r="Z18" s="72"/>
       <c r="AA18" s="72"/>
       <c r="AB18" s="72"/>
       <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="124">
+      <c r="AD18" s="115">
         <v>0.92200000000000004</v>
       </c>
-      <c r="AF18" s="126">
+      <c r="AE18" s="117">
         <v>0.90800000000000003</v>
       </c>
+      <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="205">
+      <c r="AH18" s="221">
         <v>0.92200000000000004</v>
       </c>
-      <c r="AJ18" s="206">
+      <c r="AI18" s="173">
         <v>0.91</v>
       </c>
-      <c r="AK18" s="125">
+      <c r="AJ18" s="116">
         <v>0.91900000000000004</v>
       </c>
-      <c r="AL18" s="126">
+      <c r="AK18" s="117">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="195">
-        <f t="shared" si="0"/>
-        <v>0.98481561822125807</v>
-      </c>
-      <c r="AT18" s="196"/>
-      <c r="AU18" s="197">
-        <f t="shared" ref="AU18" si="3">+AJ18/AI18</f>
-        <v>0.98698481561822127</v>
-      </c>
-      <c r="AV18" s="198">
-        <f t="shared" ref="AV18" si="4">+AL18/AK18</f>
-        <v>0.98367791077257882</v>
-      </c>
-      <c r="AW18" s="99"/>
-    </row>
-    <row r="19" spans="1:50" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="209"/>
+      <c r="AP18" s="167"/>
+      <c r="AQ18" s="167"/>
+      <c r="AR18" s="166">
+        <f>1-AE18/AD18</f>
+        <v>1.5184381778741929E-2</v>
+      </c>
+      <c r="AS18" s="167"/>
+      <c r="AT18" s="168">
+        <f>1-AI18/AH18</f>
+        <v>1.3015184381778733E-2</v>
+      </c>
+      <c r="AU18" s="169">
+        <f>1-AK18/AJ18</f>
+        <v>1.6322089227421177E-2</v>
+      </c>
+      <c r="AV18" s="208"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+    </row>
+    <row r="19" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -6753,23 +7083,23 @@
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
-      <c r="I19" s="133"/>
+      <c r="I19" s="124"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
-      <c r="L19" s="144"/>
+      <c r="L19" s="135"/>
       <c r="M19" s="72"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="96"/>
       <c r="T19" s="72"/>
       <c r="U19" s="72"/>
       <c r="V19" s="72"/>
       <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="98"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="72"/>
       <c r="Z19" s="72"/>
       <c r="AA19" s="72"/>
       <c r="AB19" s="72"/>
@@ -6783,22 +7113,25 @@
       <c r="AJ19" s="72"/>
       <c r="AK19" s="72"/>
       <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="99"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="209"/>
+      <c r="AP19" s="167"/>
+      <c r="AQ19" s="167"/>
+      <c r="AR19" s="167"/>
+      <c r="AS19" s="167"/>
+      <c r="AT19" s="167"/>
+      <c r="AU19" s="167"/>
+      <c r="AV19" s="208"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="AZ19" s="51"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
-      <c r="B20" s="122" t="s">
-        <v>48</v>
+      <c r="B20" s="113" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>20</v>
@@ -6810,89 +7143,94 @@
         <v>20</v>
       </c>
       <c r="F20" s="60"/>
-      <c r="G20" s="128" t="s">
+      <c r="G20" s="119" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="57"/>
-      <c r="I20" s="136" t="s">
+      <c r="I20" s="127" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
-      <c r="L20" s="148" t="s">
+      <c r="L20" s="139" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="60"/>
-      <c r="N20" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="136" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
+      <c r="N20" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="119"/>
       <c r="T20" s="60"/>
       <c r="U20" s="60"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="98"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="72"/>
       <c r="Z20" s="72"/>
       <c r="AA20" s="72"/>
       <c r="AB20" s="72"/>
       <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="57">
+      <c r="AD20" s="57">
         <v>0.96599999999999997</v>
       </c>
-      <c r="AF20" s="128">
+      <c r="AE20" s="119">
         <v>0.92100000000000004</v>
       </c>
+      <c r="AF20" s="72"/>
       <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="57">
+      <c r="AH20" s="171">
         <v>0.95599999999999996</v>
       </c>
-      <c r="AJ20" s="60">
+      <c r="AI20" s="58">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AK20" s="58">
+      <c r="AJ20" s="61">
         <v>0.93899999999999995</v>
       </c>
-      <c r="AL20" s="207">
+      <c r="AK20" s="154">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="186">
-        <f t="shared" si="0"/>
-        <v>0.95341614906832306</v>
-      </c>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="189">
-        <f t="shared" ref="AU20:AU21" si="5">+AJ20/AI20</f>
-        <v>0.9707112970711298</v>
-      </c>
-      <c r="AV20" s="190">
-        <f t="shared" ref="AV20:AV21" si="6">+AL20/AK20</f>
-        <v>0.98828541001064973</v>
-      </c>
-      <c r="AW20" s="99"/>
-    </row>
-    <row r="21" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="96"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="209"/>
+      <c r="AP20" s="167"/>
+      <c r="AQ20" s="167"/>
+      <c r="AR20" s="199">
+        <f>1-AE20/AD20</f>
+        <v>4.658385093167694E-2</v>
+      </c>
+      <c r="AS20" s="167"/>
+      <c r="AT20" s="224">
+        <f>1-AI20/AH20</f>
+        <v>2.9288702928870203E-2</v>
+      </c>
+      <c r="AU20" s="203">
+        <f>1-AK20/AJ20</f>
+        <v>1.1714589989350266E-2</v>
+      </c>
+      <c r="AV20" s="208"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+    </row>
+    <row r="21" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
-      <c r="B21" s="104" t="s">
-        <v>49</v>
+      <c r="B21" s="101" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>20</v>
@@ -6904,86 +7242,89 @@
         <v>20</v>
       </c>
       <c r="F21" s="76"/>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="97" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="73"/>
-      <c r="I21" s="137" t="s">
+      <c r="I21" s="128" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="76"/>
       <c r="K21" s="76"/>
-      <c r="L21" s="149" t="s">
+      <c r="L21" s="140" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="76"/>
-      <c r="N21" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
+      <c r="N21" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="73"/>
+      <c r="S21" s="97"/>
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
-      <c r="V21" s="100"/>
+      <c r="V21" s="97"/>
       <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="98"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="72"/>
       <c r="Z21" s="72"/>
       <c r="AA21" s="72"/>
       <c r="AB21" s="72"/>
       <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="73">
+      <c r="AD21" s="73">
         <v>0.97</v>
       </c>
-      <c r="AF21" s="100">
+      <c r="AE21" s="97">
         <v>0.90200000000000002</v>
       </c>
+      <c r="AF21" s="72"/>
       <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="181">
+      <c r="AH21" s="165">
         <v>0.89400000000000002</v>
       </c>
-      <c r="AJ21" s="79">
+      <c r="AI21" s="79">
         <v>0.89</v>
       </c>
-      <c r="AK21" s="210">
+      <c r="AJ21" s="174">
         <v>0.91200000000000003</v>
       </c>
-      <c r="AL21" s="211">
+      <c r="AK21" s="175">
         <v>0.90500000000000003</v>
       </c>
-      <c r="AM21" s="72"/>
-      <c r="AN21" s="99"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="188">
-        <f t="shared" si="0"/>
-        <v>0.92989690721649487</v>
-      </c>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="193">
-        <f t="shared" si="5"/>
-        <v>0.99552572706935127</v>
-      </c>
-      <c r="AV21" s="194">
-        <f t="shared" si="6"/>
-        <v>0.99232456140350878</v>
-      </c>
-      <c r="AW21" s="99"/>
-    </row>
-    <row r="22" spans="1:50" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="209"/>
+      <c r="AP21" s="167"/>
+      <c r="AQ21" s="167"/>
+      <c r="AR21" s="201">
+        <f>1-AE21/AD21</f>
+        <v>7.0103092783505128E-2</v>
+      </c>
+      <c r="AS21" s="167"/>
+      <c r="AT21" s="206">
+        <f>1-AI21/AH21</f>
+        <v>4.4742729306487261E-3</v>
+      </c>
+      <c r="AU21" s="223">
+        <f>1-AK21/AJ21</f>
+        <v>7.6754385964912242E-3</v>
+      </c>
+      <c r="AV21" s="208"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+    </row>
+    <row r="22" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="51"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -6992,23 +7333,23 @@
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
-      <c r="I22" s="133"/>
+      <c r="I22" s="124"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
-      <c r="L22" s="144"/>
+      <c r="L22" s="135"/>
       <c r="M22" s="72"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="96"/>
       <c r="T22" s="72"/>
       <c r="U22" s="72"/>
       <c r="V22" s="72"/>
       <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="98"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="72"/>
       <c r="Z22" s="72"/>
       <c r="AA22" s="72"/>
       <c r="AB22" s="72"/>
@@ -7022,76 +7363,81 @@
       <c r="AJ22" s="72"/>
       <c r="AK22" s="72"/>
       <c r="AL22" s="72"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="99"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="98"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="99"/>
-    </row>
-    <row r="23" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="209"/>
+      <c r="AP22" s="167"/>
+      <c r="AQ22" s="167"/>
+      <c r="AR22" s="167"/>
+      <c r="AS22" s="167"/>
+      <c r="AT22" s="167"/>
+      <c r="AU22" s="167"/>
+      <c r="AV22" s="208"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+    </row>
+    <row r="23" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="51"/>
-      <c r="B23" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="153" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="153" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="150" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="125"/>
-      <c r="N23" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="150" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="138" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="125"/>
-      <c r="S23" s="153" t="s">
-        <v>20</v>
-      </c>
-      <c r="T23" s="153" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="125"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="165"/>
+      <c r="B23" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="116"/>
+      <c r="N23" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="145"/>
+      <c r="S23" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="116"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="80"/>
       <c r="Z23" s="80"/>
       <c r="AA23" s="80"/>
       <c r="AB23" s="80"/>
@@ -7102,36 +7448,39 @@
       <c r="AG23" s="80"/>
       <c r="AH23" s="80"/>
       <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="205">
+      <c r="AJ23" s="186">
         <v>0.96</v>
       </c>
-      <c r="AL23" s="206">
+      <c r="AK23" s="187">
         <v>0.93</v>
       </c>
-      <c r="AM23" s="208">
+      <c r="AL23" s="172">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AN23" s="209">
+      <c r="AM23" s="185">
         <v>0.94099999999999995</v>
       </c>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="165"/>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="80"/>
-      <c r="AS23" s="80"/>
-      <c r="AT23" s="80"/>
-      <c r="AU23" s="80"/>
-      <c r="AV23" s="124">
-        <f>+AL23/AK23</f>
-        <v>0.96875000000000011</v>
-      </c>
-      <c r="AW23" s="126">
-        <f>+AN23/AM23</f>
-        <v>0.95146612740141556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="210"/>
+      <c r="AP23" s="211"/>
+      <c r="AQ23" s="211"/>
+      <c r="AR23" s="211"/>
+      <c r="AS23" s="211"/>
+      <c r="AT23" s="211"/>
+      <c r="AU23" s="168">
+        <f>1-AK23/AJ23</f>
+        <v>3.1249999999999889E-2</v>
+      </c>
+      <c r="AV23" s="222">
+        <f>1-AM23/AL23</f>
+        <v>4.8533872598584438E-2</v>
+      </c>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+    </row>
+    <row r="24" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="69"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -7148,15 +7497,15 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="155" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="156"/>
+      <c r="R24" s="231" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="232"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
+      <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
@@ -7172,11 +7521,18 @@
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="56"/>
-      <c r="AX24" s="4"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="189"/>
+      <c r="AP24" s="189"/>
+      <c r="AQ24" s="189"/>
+      <c r="AR24" s="189"/>
+      <c r="AS24" s="189"/>
+      <c r="AT24" s="189"/>
+      <c r="AU24" s="189"/>
+      <c r="AV24" s="189"/>
+      <c r="AW24" s="4"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B25" s="69"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -7199,7 +7555,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
+      <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
@@ -7214,12 +7570,24 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="56"/>
-      <c r="AX25" s="4"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="56"/>
+      <c r="AR25" s="190">
+        <f>+AR10-AR16</f>
+        <v>4.8326266266438322E-2</v>
+      </c>
+      <c r="AS25" s="190"/>
+      <c r="AT25" s="190">
+        <f>+AT10-AT16</f>
+        <v>3.2661440836132538E-3</v>
+      </c>
+      <c r="AU25" s="190">
+        <f>+AU10-AU16</f>
+        <v>5.2271640876543346E-3</v>
+      </c>
+      <c r="AW25" s="4"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B26" s="69"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7242,27 +7610,57 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
+      <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
+      <c r="AD26" s="190">
+        <f>+AD18-AD16</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AE26" s="190">
+        <f>+AE18-AE16</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
+      <c r="AH26" s="190">
+        <f>+AH18-AH16</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="AI26" s="190">
+        <f>+AI18-AI16</f>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="AJ26" s="190">
+        <f>+AJ18-AJ16</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="AK26" s="190">
+        <f>+AK18-AK16</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="56"/>
-      <c r="AX26" s="4"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN26" s="56"/>
+      <c r="AR26" s="190">
+        <f>+AR18-AR16</f>
+        <v>-1.1639652556022062E-2</v>
+      </c>
+      <c r="AS26" s="190"/>
+      <c r="AT26" s="190">
+        <f>+AT18-AT16</f>
+        <v>1.1895363553111271E-2</v>
+      </c>
+      <c r="AU26" s="190">
+        <f>+AU18-AU16</f>
+        <v>1.0784990667066841E-2</v>
+      </c>
+      <c r="AW26" s="4"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B27" s="69"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -7285,7 +7683,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
+      <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
@@ -7301,10 +7699,9 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="56"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN27" s="56"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B28" s="69"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -7327,7 +7724,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
+      <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
@@ -7343,10 +7740,9 @@
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="56"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN28" s="56"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B29" s="69"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -7385,10 +7781,9 @@
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="56"/>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN29" s="56"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B30" s="51"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -7427,10 +7822,9 @@
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="56"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN30" s="56"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B31" s="69"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -7469,10 +7863,9 @@
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="56"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AN31" s="56"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B32" s="69"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -7512,9 +7905,8 @@
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-    </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="51"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -7554,9 +7946,8 @@
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
       <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-    </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="69"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -7596,9 +7987,8 @@
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-    </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="69"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -7638,9 +8028,8 @@
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-    </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="69"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -7680,9 +8069,8 @@
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-    </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B37" s="69"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -7722,10 +8110,9 @@
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-    </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B38" s="92"/>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B38" s="89"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -7764,9 +8151,8 @@
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-    </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -7805,7 +8191,6 @@
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Supervised_Learning/Scorecard - F1 values.xlsx
+++ b/Supervised_Learning/Scorecard - F1 values.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfred\Documents\GitHub\DSaML_Projects\Supervised_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D7CF6-4FFF-4D39-B496-B8EB52D69314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3664BD6-4916-4D72-A749-C541733FCC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Snippet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -187,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="81">
   <si>
     <t>RoomType</t>
   </si>
@@ -401,6 +402,36 @@
   <si>
     <t>Baseline 3.0 - 14+1 Features</t>
   </si>
+  <si>
+    <t>Baseline 8</t>
+  </si>
+  <si>
+    <t>Baseline 10</t>
+  </si>
+  <si>
+    <t>Baseline 14+1</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Extra Trees</t>
+  </si>
+  <si>
+    <t>F1-Train</t>
+  </si>
+  <si>
+    <t>F1-Validation</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>F1 delta</t>
+  </si>
 </sst>
 </file>
 
@@ -531,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1022,12 +1053,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,33 +1601,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,10 +1735,109 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2088,15 +2291,15 @@
       <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="176" t="s">
+      <c r="AG1" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-      <c r="AJ1" s="177"/>
-      <c r="AK1" s="177"/>
-      <c r="AL1" s="177"/>
-      <c r="AM1" s="178"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="223"/>
+      <c r="AJ1" s="223"/>
+      <c r="AK1" s="223"/>
+      <c r="AL1" s="223"/>
+      <c r="AM1" s="224"/>
     </row>
     <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
@@ -5299,8 +5502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47D96A-367B-44D4-A207-423C8F54CE2A}">
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5359,10 +5562,10 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="227" t="s">
+      <c r="R1" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="219" t="s">
         <v>56</v>
       </c>
       <c r="T1" s="1"/>
@@ -5418,13 +5621,13 @@
       <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="226" t="s">
+      <c r="Q2" s="217" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="229" t="s">
+      <c r="S2" s="220" t="s">
         <v>43</v>
       </c>
       <c r="T2" s="91" t="s">
@@ -5570,7 +5773,7 @@
       <c r="AZ3" s="51"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="230" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="113" t="s">
@@ -5660,42 +5863,42 @@
       <c r="AL4" s="72"/>
       <c r="AM4" s="96"/>
       <c r="AN4" s="56"/>
-      <c r="AO4" s="192">
+      <c r="AO4" s="183">
         <f>1-Y4/X4</f>
         <v>1.2610340479193294E-3</v>
       </c>
-      <c r="AP4" s="193">
+      <c r="AP4" s="184">
         <f>1-AA4/Z4</f>
         <v>4.2998897464167629E-2</v>
       </c>
-      <c r="AQ4" s="193">
+      <c r="AQ4" s="184">
         <f>1-AC4/AB4</f>
         <v>7.4152542372881269E-2</v>
       </c>
-      <c r="AR4" s="193">
+      <c r="AR4" s="184">
         <f>1-AE4/AD4</f>
         <v>3.5106382978723372E-2</v>
       </c>
-      <c r="AS4" s="193">
+      <c r="AS4" s="184">
         <f>1-AG4/AF4</f>
         <v>2.4968789013732895E-3</v>
       </c>
-      <c r="AT4" s="193">
+      <c r="AT4" s="184">
         <f>1-AI4/AH4</f>
         <v>3.0949839914621191E-2</v>
       </c>
-      <c r="AU4" s="194">
+      <c r="AU4" s="185">
         <f>1-AK4/AJ4</f>
         <v>3.4482758620689724E-2</v>
       </c>
-      <c r="AV4" s="208"/>
+      <c r="AV4" s="199"/>
       <c r="AW4" s="51"/>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
       <c r="AZ4" s="51"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="183"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="99" t="s">
         <v>52</v>
       </c>
@@ -5781,42 +5984,42 @@
       <c r="AL5" s="72"/>
       <c r="AM5" s="96"/>
       <c r="AN5" s="56"/>
-      <c r="AO5" s="195">
+      <c r="AO5" s="186">
         <f t="shared" ref="AO5:AO8" si="0">1-Y5/X5</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="191">
+      <c r="AP5" s="182">
         <f t="shared" ref="AP5:AP8" si="1">1-AA5/Z5</f>
         <v>2.6402640264026389E-2</v>
       </c>
-      <c r="AQ5" s="191">
+      <c r="AQ5" s="182">
         <f t="shared" ref="AQ5:AQ8" si="2">1-AC5/AB5</f>
         <v>2.5274725274725296E-2</v>
       </c>
-      <c r="AR5" s="191">
+      <c r="AR5" s="182">
         <f t="shared" ref="AR5:AR8" si="3">1-AE5/AD5</f>
         <v>2.2678185745140356E-2</v>
       </c>
-      <c r="AS5" s="191">
+      <c r="AS5" s="182">
         <f>MAX(1-AG5/AF5,0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="191">
+      <c r="AT5" s="182">
         <f t="shared" ref="AT5:AT8" si="4">1-AI5/AH5</f>
         <v>1.413043478260867E-2</v>
       </c>
-      <c r="AU5" s="196">
+      <c r="AU5" s="187">
         <f t="shared" ref="AU5:AU8" si="5">1-AK5/AJ5</f>
         <v>1.2048192771084376E-2</v>
       </c>
-      <c r="AV5" s="208"/>
+      <c r="AV5" s="199"/>
       <c r="AW5" s="51"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
       <c r="AZ5" s="51"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="183"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="99" t="s">
         <v>58</v>
       </c>
@@ -5869,10 +6072,10 @@
       <c r="W6" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="214">
+      <c r="X6" s="205">
         <v>0.81100000000000005</v>
       </c>
-      <c r="Y6" s="213">
+      <c r="Y6" s="204">
         <v>0.80900000000000005</v>
       </c>
       <c r="Z6" s="71">
@@ -5893,10 +6096,10 @@
       <c r="AE6" s="71">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AF6" s="188">
+      <c r="AF6" s="179">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AG6" s="188">
+      <c r="AG6" s="179">
         <v>0.81599999999999995</v>
       </c>
       <c r="AH6" s="170">
@@ -5914,42 +6117,42 @@
       <c r="AL6" s="90"/>
       <c r="AM6" s="93"/>
       <c r="AN6" s="51"/>
-      <c r="AO6" s="195">
+      <c r="AO6" s="186">
         <f t="shared" si="0"/>
         <v>2.4660912453761119E-3</v>
       </c>
-      <c r="AP6" s="191">
+      <c r="AP6" s="182">
         <f t="shared" si="1"/>
         <v>3.6105032822757122E-2</v>
       </c>
-      <c r="AQ6" s="191">
+      <c r="AQ6" s="182">
         <f t="shared" si="2"/>
         <v>9.2975206611570216E-2</v>
       </c>
-      <c r="AR6" s="191">
+      <c r="AR6" s="182">
         <f t="shared" si="3"/>
         <v>5.0308008213552302E-2</v>
       </c>
-      <c r="AS6" s="191">
+      <c r="AS6" s="182">
         <f t="shared" ref="AS6:AS8" si="6">1-AG6/AF6</f>
         <v>2.4449877750610804E-3</v>
       </c>
-      <c r="AT6" s="225">
+      <c r="AT6" s="216">
         <f t="shared" si="4"/>
         <v>4.6986721144024468E-2</v>
       </c>
-      <c r="AU6" s="196">
+      <c r="AU6" s="187">
         <f t="shared" si="5"/>
         <v>5.0672182006204713E-2</v>
       </c>
-      <c r="AV6" s="208"/>
+      <c r="AV6" s="199"/>
       <c r="AW6" s="51"/>
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
       <c r="AZ6" s="51"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="183"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="99" t="s">
         <v>59</v>
       </c>
@@ -6004,16 +6207,16 @@
       <c r="Y7" s="71">
         <v>0.80700000000000005</v>
       </c>
-      <c r="Z7" s="213">
+      <c r="Z7" s="204">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AA7" s="213">
+      <c r="AA7" s="204">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AB7" s="213">
+      <c r="AB7" s="204">
         <v>0.96599999999999997</v>
       </c>
-      <c r="AC7" s="213">
+      <c r="AC7" s="204">
         <v>0.88500000000000001</v>
       </c>
       <c r="AD7" s="170">
@@ -6022,10 +6225,10 @@
       <c r="AE7" s="170">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AF7" s="213">
+      <c r="AF7" s="204">
         <v>0.81699999999999995</v>
       </c>
-      <c r="AG7" s="213">
+      <c r="AG7" s="204">
         <v>0.81599999999999995</v>
       </c>
       <c r="AH7" s="71">
@@ -6043,42 +6246,42 @@
       <c r="AL7" s="90"/>
       <c r="AM7" s="93"/>
       <c r="AN7" s="51"/>
-      <c r="AO7" s="195">
+      <c r="AO7" s="186">
         <f t="shared" si="0"/>
         <v>2.4721878862793423E-3</v>
       </c>
-      <c r="AP7" s="191">
+      <c r="AP7" s="182">
         <f t="shared" si="1"/>
         <v>3.1385281385281405E-2</v>
       </c>
-      <c r="AQ7" s="191">
+      <c r="AQ7" s="182">
         <f t="shared" si="2"/>
         <v>8.3850931677018625E-2</v>
       </c>
-      <c r="AR7" s="225">
+      <c r="AR7" s="216">
         <f t="shared" si="3"/>
         <v>4.3298969072164906E-2</v>
       </c>
-      <c r="AS7" s="191">
+      <c r="AS7" s="182">
         <f t="shared" si="6"/>
         <v>1.223990208078285E-3</v>
       </c>
-      <c r="AT7" s="191">
+      <c r="AT7" s="182">
         <f t="shared" si="4"/>
         <v>4.2181069958847628E-2</v>
       </c>
-      <c r="AU7" s="196">
+      <c r="AU7" s="187">
         <f t="shared" si="5"/>
         <v>2.2151898734177111E-2</v>
       </c>
-      <c r="AV7" s="208"/>
+      <c r="AV7" s="199"/>
       <c r="AW7" s="51"/>
       <c r="AX7" s="51"/>
       <c r="AY7" s="51"/>
       <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="184"/>
+      <c r="A8" s="232"/>
       <c r="B8" s="101" t="s">
         <v>60</v>
       </c>
@@ -6159,10 +6362,10 @@
       <c r="AG8" s="79">
         <v>0.81399999999999995</v>
       </c>
-      <c r="AH8" s="212">
+      <c r="AH8" s="203">
         <v>0.97299999999999998</v>
       </c>
-      <c r="AI8" s="212">
+      <c r="AI8" s="203">
         <v>0.93200000000000005</v>
       </c>
       <c r="AJ8" s="174">
@@ -6174,35 +6377,35 @@
       <c r="AL8" s="90"/>
       <c r="AM8" s="93"/>
       <c r="AN8" s="51"/>
-      <c r="AO8" s="197">
+      <c r="AO8" s="188">
         <f t="shared" si="0"/>
         <v>1.2345679012345512E-3</v>
       </c>
-      <c r="AP8" s="198">
+      <c r="AP8" s="189">
         <f t="shared" si="1"/>
         <v>3.2608695652173947E-2</v>
       </c>
-      <c r="AQ8" s="198">
+      <c r="AQ8" s="189">
         <f t="shared" si="2"/>
         <v>9.213250517598337E-2</v>
       </c>
-      <c r="AR8" s="198">
+      <c r="AR8" s="189">
         <f t="shared" si="3"/>
         <v>4.9382716049382602E-2</v>
       </c>
-      <c r="AS8" s="198">
+      <c r="AS8" s="189">
         <f t="shared" si="6"/>
         <v>2.450980392156854E-3</v>
       </c>
-      <c r="AT8" s="198">
+      <c r="AT8" s="189">
         <f t="shared" si="4"/>
         <v>4.2137718396711099E-2</v>
       </c>
-      <c r="AU8" s="223">
+      <c r="AU8" s="214">
         <f t="shared" si="5"/>
         <v>2.9442691903259655E-2</v>
       </c>
-      <c r="AV8" s="208"/>
+      <c r="AV8" s="199"/>
       <c r="AW8" s="51"/>
       <c r="AX8" s="51"/>
       <c r="AY8" s="51"/>
@@ -6249,21 +6452,21 @@
       <c r="AL9" s="72"/>
       <c r="AM9" s="96"/>
       <c r="AN9" s="56"/>
-      <c r="AO9" s="209"/>
+      <c r="AO9" s="200"/>
       <c r="AP9" s="167"/>
       <c r="AQ9" s="167"/>
       <c r="AR9" s="167"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="167"/>
-      <c r="AV9" s="208"/>
+      <c r="AV9" s="199"/>
       <c r="AW9" s="51"/>
       <c r="AX9" s="51"/>
       <c r="AY9" s="51"/>
       <c r="AZ9" s="51"/>
     </row>
     <row r="10" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="225" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="113" t="s">
@@ -6330,10 +6533,10 @@
       </c>
       <c r="AF10" s="72"/>
       <c r="AG10" s="72"/>
-      <c r="AH10" s="215">
+      <c r="AH10" s="206">
         <v>0.91200000000000003</v>
       </c>
-      <c r="AI10" s="216">
+      <c r="AI10" s="207">
         <v>0.90800000000000003</v>
       </c>
       <c r="AJ10" s="60">
@@ -6345,26 +6548,26 @@
       <c r="AL10" s="72"/>
       <c r="AM10" s="96"/>
       <c r="AN10" s="56"/>
-      <c r="AO10" s="209"/>
+      <c r="AO10" s="200"/>
       <c r="AP10" s="167"/>
       <c r="AQ10" s="167"/>
-      <c r="AR10" s="199">
+      <c r="AR10" s="190">
         <f>1-AE10/AD10</f>
         <v>7.5150300601202313E-2</v>
       </c>
       <c r="AS10" s="167"/>
-      <c r="AT10" s="202">
+      <c r="AT10" s="193">
         <f>1-AI10/AH10</f>
         <v>4.3859649122807154E-3</v>
       </c>
-      <c r="AU10" s="203">
+      <c r="AU10" s="194">
         <f>1-AK10/AJ10</f>
         <v>1.0764262648008671E-2</v>
       </c>
-      <c r="AV10" s="208"/>
+      <c r="AV10" s="199"/>
     </row>
     <row r="11" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+      <c r="A11" s="226"/>
       <c r="B11" s="99" t="s">
         <v>54</v>
       </c>
@@ -6440,26 +6643,26 @@
       <c r="AL11" s="72"/>
       <c r="AM11" s="96"/>
       <c r="AN11" s="56"/>
-      <c r="AO11" s="209"/>
+      <c r="AO11" s="200"/>
       <c r="AP11" s="167"/>
       <c r="AQ11" s="167"/>
-      <c r="AR11" s="200">
+      <c r="AR11" s="191">
         <f t="shared" ref="AR11:AR16" si="7">1-AE11/AD11</f>
         <v>6.1287027579162379E-2</v>
       </c>
       <c r="AS11" s="167"/>
-      <c r="AT11" s="204">
+      <c r="AT11" s="195">
         <f t="shared" ref="AT11:AT16" si="8">1-AI11/AH11</f>
         <v>2.2026431718061845E-3</v>
       </c>
-      <c r="AU11" s="205">
+      <c r="AU11" s="196">
         <f t="shared" ref="AU11:AU16" si="9">1-AK11/AJ11</f>
         <v>8.6580086580086979E-3</v>
       </c>
-      <c r="AV11" s="208"/>
+      <c r="AV11" s="199"/>
     </row>
     <row r="12" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
+      <c r="A12" s="226"/>
       <c r="B12" s="99" t="s">
         <v>55</v>
       </c>
@@ -6524,35 +6727,35 @@
       <c r="AI12" s="68">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AJ12" s="217">
+      <c r="AJ12" s="208">
         <v>0.92700000000000005</v>
       </c>
-      <c r="AK12" s="218">
+      <c r="AK12" s="209">
         <v>0.92</v>
       </c>
       <c r="AL12" s="72"/>
       <c r="AM12" s="96"/>
       <c r="AN12" s="56"/>
-      <c r="AO12" s="209"/>
+      <c r="AO12" s="200"/>
       <c r="AP12" s="167"/>
       <c r="AQ12" s="167"/>
-      <c r="AR12" s="200">
+      <c r="AR12" s="191">
         <f t="shared" si="7"/>
         <v>5.7435897435897387E-2</v>
       </c>
       <c r="AS12" s="167"/>
-      <c r="AT12" s="204">
+      <c r="AT12" s="195">
         <f t="shared" si="8"/>
         <v>3.3076074972436809E-3</v>
       </c>
-      <c r="AU12" s="205">
+      <c r="AU12" s="196">
         <f t="shared" si="9"/>
         <v>7.5512405609493571E-3</v>
       </c>
-      <c r="AV12" s="208"/>
+      <c r="AV12" s="199"/>
     </row>
     <row r="13" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="99" t="s">
         <v>61</v>
       </c>
@@ -6628,26 +6831,26 @@
       <c r="AL13" s="72"/>
       <c r="AM13" s="96"/>
       <c r="AN13" s="56"/>
-      <c r="AO13" s="209"/>
+      <c r="AO13" s="200"/>
       <c r="AP13" s="167"/>
       <c r="AQ13" s="167"/>
-      <c r="AR13" s="200">
+      <c r="AR13" s="191">
         <f t="shared" si="7"/>
         <v>6.8825910931174072E-2</v>
       </c>
       <c r="AS13" s="167"/>
-      <c r="AT13" s="204">
+      <c r="AT13" s="195">
         <f t="shared" si="8"/>
         <v>5.5005500550054931E-3</v>
       </c>
-      <c r="AU13" s="205">
+      <c r="AU13" s="196">
         <f t="shared" si="9"/>
         <v>9.7087378640776656E-3</v>
       </c>
-      <c r="AV13" s="208"/>
+      <c r="AV13" s="199"/>
     </row>
     <row r="14" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="99" t="s">
         <v>62</v>
       </c>
@@ -6723,26 +6926,26 @@
       <c r="AL14" s="72"/>
       <c r="AM14" s="96"/>
       <c r="AN14" s="56"/>
-      <c r="AO14" s="209"/>
+      <c r="AO14" s="200"/>
       <c r="AP14" s="167"/>
       <c r="AQ14" s="167"/>
-      <c r="AR14" s="200">
+      <c r="AR14" s="191">
         <f t="shared" si="7"/>
         <v>6.7676767676767668E-2</v>
       </c>
       <c r="AS14" s="167"/>
-      <c r="AT14" s="204">
+      <c r="AT14" s="195">
         <f t="shared" si="8"/>
         <v>4.3907793633369829E-3</v>
       </c>
-      <c r="AU14" s="205">
+      <c r="AU14" s="196">
         <f t="shared" si="9"/>
         <v>9.6982758620689502E-3</v>
       </c>
-      <c r="AV14" s="208"/>
+      <c r="AV14" s="199"/>
     </row>
     <row r="15" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="180"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="99" t="s">
         <v>63</v>
       </c>
@@ -6816,26 +7019,26 @@
       <c r="AL15" s="72"/>
       <c r="AM15" s="96"/>
       <c r="AN15" s="56"/>
-      <c r="AO15" s="209"/>
+      <c r="AO15" s="200"/>
       <c r="AP15" s="167"/>
       <c r="AQ15" s="167"/>
-      <c r="AR15" s="200">
+      <c r="AR15" s="191">
         <f t="shared" si="7"/>
         <v>5.7851239669421406E-2</v>
       </c>
       <c r="AS15" s="167"/>
-      <c r="AT15" s="204">
+      <c r="AT15" s="195">
         <f t="shared" si="8"/>
         <v>4.4296788482834915E-3</v>
       </c>
-      <c r="AU15" s="205">
+      <c r="AU15" s="196">
         <f t="shared" si="9"/>
         <v>1.0940919037199182E-2</v>
       </c>
-      <c r="AV15" s="208"/>
+      <c r="AV15" s="199"/>
     </row>
     <row r="16" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="181"/>
+      <c r="A16" s="227"/>
       <c r="B16" s="101" t="s">
         <v>64</v>
       </c>
@@ -6882,10 +7085,10 @@
       <c r="AA16" s="90"/>
       <c r="AB16" s="90"/>
       <c r="AC16" s="90"/>
-      <c r="AD16" s="219">
+      <c r="AD16" s="210">
         <v>0.93200000000000005</v>
       </c>
-      <c r="AE16" s="220">
+      <c r="AE16" s="211">
         <v>0.90700000000000003</v>
       </c>
       <c r="AF16" s="72"/>
@@ -6905,23 +7108,23 @@
       <c r="AL16" s="90"/>
       <c r="AM16" s="93"/>
       <c r="AN16" s="51"/>
-      <c r="AO16" s="209"/>
+      <c r="AO16" s="200"/>
       <c r="AP16" s="167"/>
       <c r="AQ16" s="167"/>
-      <c r="AR16" s="201">
+      <c r="AR16" s="192">
         <f t="shared" si="7"/>
         <v>2.6824034334763991E-2</v>
       </c>
       <c r="AS16" s="167"/>
-      <c r="AT16" s="206">
+      <c r="AT16" s="197">
         <f t="shared" si="8"/>
         <v>1.1198208286674616E-3</v>
       </c>
-      <c r="AU16" s="207">
+      <c r="AU16" s="198">
         <f t="shared" si="9"/>
         <v>5.5370985603543366E-3</v>
       </c>
-      <c r="AV16" s="208"/>
+      <c r="AV16" s="199"/>
       <c r="AW16" s="51"/>
       <c r="AX16" s="51"/>
       <c r="AY16" s="51"/>
@@ -6968,14 +7171,14 @@
       <c r="AL17" s="72"/>
       <c r="AM17" s="96"/>
       <c r="AN17" s="56"/>
-      <c r="AO17" s="209"/>
+      <c r="AO17" s="200"/>
       <c r="AP17" s="167"/>
       <c r="AQ17" s="167"/>
       <c r="AR17" s="167"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="167"/>
-      <c r="AV17" s="208"/>
+      <c r="AV17" s="199"/>
       <c r="AW17" s="51"/>
       <c r="AX17" s="51"/>
       <c r="AY17" s="51"/>
@@ -7037,7 +7240,7 @@
       </c>
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
-      <c r="AH18" s="221">
+      <c r="AH18" s="212">
         <v>0.92200000000000004</v>
       </c>
       <c r="AI18" s="173">
@@ -7052,7 +7255,7 @@
       <c r="AL18" s="72"/>
       <c r="AM18" s="96"/>
       <c r="AN18" s="56"/>
-      <c r="AO18" s="209"/>
+      <c r="AO18" s="200"/>
       <c r="AP18" s="167"/>
       <c r="AQ18" s="167"/>
       <c r="AR18" s="166">
@@ -7068,7 +7271,7 @@
         <f>1-AK18/AJ18</f>
         <v>1.6322089227421177E-2</v>
       </c>
-      <c r="AV18" s="208"/>
+      <c r="AV18" s="199"/>
       <c r="AW18" s="51"/>
       <c r="AX18" s="51"/>
       <c r="AY18" s="51"/>
@@ -7115,14 +7318,14 @@
       <c r="AL19" s="72"/>
       <c r="AM19" s="96"/>
       <c r="AN19" s="56"/>
-      <c r="AO19" s="209"/>
+      <c r="AO19" s="200"/>
       <c r="AP19" s="167"/>
       <c r="AQ19" s="167"/>
       <c r="AR19" s="167"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="167"/>
-      <c r="AV19" s="208"/>
+      <c r="AV19" s="199"/>
       <c r="AW19" s="51"/>
       <c r="AX19" s="51"/>
       <c r="AY19" s="51"/>
@@ -7205,23 +7408,23 @@
       <c r="AL20" s="72"/>
       <c r="AM20" s="96"/>
       <c r="AN20" s="56"/>
-      <c r="AO20" s="209"/>
+      <c r="AO20" s="200"/>
       <c r="AP20" s="167"/>
       <c r="AQ20" s="167"/>
-      <c r="AR20" s="199">
+      <c r="AR20" s="190">
         <f>1-AE20/AD20</f>
         <v>4.658385093167694E-2</v>
       </c>
       <c r="AS20" s="167"/>
-      <c r="AT20" s="224">
+      <c r="AT20" s="215">
         <f>1-AI20/AH20</f>
         <v>2.9288702928870203E-2</v>
       </c>
-      <c r="AU20" s="203">
+      <c r="AU20" s="194">
         <f>1-AK20/AJ20</f>
         <v>1.1714589989350266E-2</v>
       </c>
-      <c r="AV20" s="208"/>
+      <c r="AV20" s="199"/>
       <c r="AW20" s="51"/>
       <c r="AX20" s="51"/>
       <c r="AY20" s="51"/>
@@ -7302,23 +7505,23 @@
       <c r="AL21" s="72"/>
       <c r="AM21" s="96"/>
       <c r="AN21" s="56"/>
-      <c r="AO21" s="209"/>
+      <c r="AO21" s="200"/>
       <c r="AP21" s="167"/>
       <c r="AQ21" s="167"/>
-      <c r="AR21" s="201">
+      <c r="AR21" s="192">
         <f>1-AE21/AD21</f>
         <v>7.0103092783505128E-2</v>
       </c>
       <c r="AS21" s="167"/>
-      <c r="AT21" s="206">
+      <c r="AT21" s="197">
         <f>1-AI21/AH21</f>
         <v>4.4742729306487261E-3</v>
       </c>
-      <c r="AU21" s="223">
+      <c r="AU21" s="214">
         <f>1-AK21/AJ21</f>
         <v>7.6754385964912242E-3</v>
       </c>
-      <c r="AV21" s="208"/>
+      <c r="AV21" s="199"/>
       <c r="AW21" s="51"/>
       <c r="AX21" s="51"/>
       <c r="AY21" s="51"/>
@@ -7365,14 +7568,14 @@
       <c r="AL22" s="72"/>
       <c r="AM22" s="96"/>
       <c r="AN22" s="56"/>
-      <c r="AO22" s="209"/>
+      <c r="AO22" s="200"/>
       <c r="AP22" s="167"/>
       <c r="AQ22" s="167"/>
       <c r="AR22" s="167"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="167"/>
-      <c r="AV22" s="208"/>
+      <c r="AV22" s="199"/>
       <c r="AW22" s="51"/>
       <c r="AX22" s="51"/>
       <c r="AY22" s="51"/>
@@ -7425,7 +7628,7 @@
         <v>20</v>
       </c>
       <c r="R23" s="145"/>
-      <c r="S23" s="230" t="s">
+      <c r="S23" s="221" t="s">
         <v>20</v>
       </c>
       <c r="T23" s="144" t="s">
@@ -7448,30 +7651,30 @@
       <c r="AG23" s="80"/>
       <c r="AH23" s="80"/>
       <c r="AI23" s="80"/>
-      <c r="AJ23" s="186">
+      <c r="AJ23" s="177">
         <v>0.96</v>
       </c>
-      <c r="AK23" s="187">
+      <c r="AK23" s="178">
         <v>0.93</v>
       </c>
       <c r="AL23" s="172">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AM23" s="185">
+      <c r="AM23" s="176">
         <v>0.94099999999999995</v>
       </c>
       <c r="AN23" s="56"/>
-      <c r="AO23" s="210"/>
-      <c r="AP23" s="211"/>
-      <c r="AQ23" s="211"/>
-      <c r="AR23" s="211"/>
-      <c r="AS23" s="211"/>
-      <c r="AT23" s="211"/>
+      <c r="AO23" s="201"/>
+      <c r="AP23" s="202"/>
+      <c r="AQ23" s="202"/>
+      <c r="AR23" s="202"/>
+      <c r="AS23" s="202"/>
+      <c r="AT23" s="202"/>
       <c r="AU23" s="168">
         <f>1-AK23/AJ23</f>
         <v>3.1249999999999889E-2</v>
       </c>
-      <c r="AV23" s="222">
+      <c r="AV23" s="213">
         <f>1-AM23/AL23</f>
         <v>4.8533872598584438E-2</v>
       </c>
@@ -7497,10 +7700,10 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="231" t="s">
+      <c r="R24" s="228" t="s">
         <v>57</v>
       </c>
-      <c r="S24" s="232"/>
+      <c r="S24" s="229"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -7522,14 +7725,14 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="56"/>
-      <c r="AO24" s="189"/>
-      <c r="AP24" s="189"/>
-      <c r="AQ24" s="189"/>
-      <c r="AR24" s="189"/>
-      <c r="AS24" s="189"/>
-      <c r="AT24" s="189"/>
-      <c r="AU24" s="189"/>
-      <c r="AV24" s="189"/>
+      <c r="AO24" s="180"/>
+      <c r="AP24" s="180"/>
+      <c r="AQ24" s="180"/>
+      <c r="AR24" s="180"/>
+      <c r="AS24" s="180"/>
+      <c r="AT24" s="180"/>
+      <c r="AU24" s="180"/>
+      <c r="AV24" s="180"/>
       <c r="AW24" s="4"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
@@ -7572,16 +7775,16 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="56"/>
-      <c r="AR25" s="190">
+      <c r="AR25" s="181">
         <f>+AR10-AR16</f>
         <v>4.8326266266438322E-2</v>
       </c>
-      <c r="AS25" s="190"/>
-      <c r="AT25" s="190">
+      <c r="AS25" s="181"/>
+      <c r="AT25" s="181">
         <f>+AT10-AT16</f>
         <v>3.2661440836132538E-3</v>
       </c>
-      <c r="AU25" s="190">
+      <c r="AU25" s="181">
         <f>+AU10-AU16</f>
         <v>5.2271640876543346E-3</v>
       </c>
@@ -7616,45 +7819,45 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="190">
+      <c r="AD26" s="181">
         <f>+AD18-AD16</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AE26" s="190">
+      <c r="AE26" s="181">
         <f>+AE18-AE16</f>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="190">
+      <c r="AH26" s="181">
         <f>+AH18-AH16</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="AI26" s="190">
+      <c r="AI26" s="181">
         <f>+AI18-AI16</f>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="AJ26" s="190">
+      <c r="AJ26" s="181">
         <f>+AJ18-AJ16</f>
         <v>1.6000000000000014E-2</v>
       </c>
-      <c r="AK26" s="190">
+      <c r="AK26" s="181">
         <f>+AK18-AK16</f>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="56"/>
-      <c r="AR26" s="190">
+      <c r="AR26" s="181">
         <f>+AR18-AR16</f>
         <v>-1.1639652556022062E-2</v>
       </c>
-      <c r="AS26" s="190"/>
-      <c r="AT26" s="190">
+      <c r="AS26" s="181"/>
+      <c r="AT26" s="181">
         <f>+AT18-AT16</f>
         <v>1.1895363553111271E-2</v>
       </c>
-      <c r="AU26" s="190">
+      <c r="AU26" s="181">
         <f>+AU18-AU16</f>
         <v>1.0784990667066841E-2</v>
       </c>
@@ -8202,4 +8405,236 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC22DC2-0CF8-474B-B849-F9774C5DDF03}">
+  <dimension ref="C2:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="236" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="254"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="236" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="254"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="254" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="254"/>
+      <c r="L3" s="237"/>
+    </row>
+    <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="238" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="239" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="240" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="238" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="239" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="240" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="255" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="239" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="240" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="241">
+        <f>+Final!AD18</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E5" s="242">
+        <f>+Final!AE18</f>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F5" s="243">
+        <f>1-(+E5/D5)</f>
+        <v>1.5184381778741929E-2</v>
+      </c>
+      <c r="G5" s="241">
+        <f>+Final!AD20</f>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H5" s="242">
+        <f>+Final!AE20</f>
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I5" s="243">
+        <f>1-(+H5/G5)</f>
+        <v>4.658385093167694E-2</v>
+      </c>
+      <c r="J5" s="241" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="243" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="234" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="250">
+        <f>+Final!AH18</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E6" s="251">
+        <f>+Final!AI18</f>
+        <v>0.91</v>
+      </c>
+      <c r="F6" s="256">
+        <f t="shared" ref="F6:F8" si="0">1-(+E6/D6)</f>
+        <v>1.3015184381778733E-2</v>
+      </c>
+      <c r="G6" s="244">
+        <f>+Final!AH20</f>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H6" s="245">
+        <f>+Final!AI20</f>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I6" s="258">
+        <f t="shared" ref="I6" si="1">1-(+H6/G6)</f>
+        <v>2.9288702928870203E-2</v>
+      </c>
+      <c r="J6" s="244" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="245" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="258" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="234" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="244">
+        <f>+Final!AJ18</f>
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E7" s="245">
+        <f>+Final!AK18</f>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F7" s="245">
+        <f>1-(+E7/D7)</f>
+        <v>1.6322089227421177E-2</v>
+      </c>
+      <c r="G7" s="250">
+        <f>+Final!AJ20</f>
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="H7" s="251">
+        <f>+Final!AK20</f>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I7" s="256">
+        <f>1-(+H7/G7)</f>
+        <v>1.1714589989350266E-2</v>
+      </c>
+      <c r="J7" s="244">
+        <f>+Final!AJ23</f>
+        <v>0.96</v>
+      </c>
+      <c r="K7" s="245">
+        <f>+Final!AK23</f>
+        <v>0.93</v>
+      </c>
+      <c r="L7" s="246">
+        <f>1-(+K7/J7)</f>
+        <v>3.1249999999999889E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="248" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="249" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="247" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="248" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="249" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="257">
+        <f>+Final!AL23</f>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K8" s="252">
+        <f>+Final!AM23</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L8" s="253">
+        <f>1-(+K8/J8)</f>
+        <v>4.8533872598584438E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Supervised_Learning/Scorecard - F1 values.xlsx
+++ b/Supervised_Learning/Scorecard - F1 values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfred\Documents\GitHub\DSaML_Projects\Supervised_Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Documents/GitHub/DSaML_Projects/Supervised_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D7CF6-4FFF-4D39-B496-B8EB52D69314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3D865-E4C3-994A-9FB4-FB9D58B322A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
+    <workbookView xWindow="1540" yWindow="680" windowWidth="32920" windowHeight="18560" activeTab="1" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -161,12 +161,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Grid Searched Hyperparameters - based on previously established baseline</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Grid Searched Hyperparameters - based on previously established baseline</t>
         </r>
       </text>
     </comment>
@@ -187,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="70">
   <si>
     <t>RoomType</t>
   </si>
@@ -360,9 +369,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Perguntar Manel</t>
-  </si>
-  <si>
     <t>Testing Models (Iteration #1.3)</t>
   </si>
   <si>
@@ -410,7 +416,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +492,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1027,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,33 +1489,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,16 +1623,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2006,46 +2022,46 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.5" style="8" customWidth="1"/>
     <col min="20" max="20" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.44140625" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" customWidth="1"/>
-    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" customWidth="1"/>
+    <col min="31" max="31" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5" style="8" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="R1" s="5" t="s">
         <v>25</v>
       </c>
@@ -2088,17 +2104,17 @@
       <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="176" t="s">
+      <c r="AG1" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-      <c r="AJ1" s="177"/>
-      <c r="AK1" s="177"/>
-      <c r="AL1" s="177"/>
-      <c r="AM1" s="178"/>
-    </row>
-    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="223"/>
+      <c r="AJ1" s="223"/>
+      <c r="AK1" s="223"/>
+      <c r="AL1" s="223"/>
+      <c r="AM1" s="224"/>
+    </row>
+    <row r="2" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
@@ -2208,7 +2224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
@@ -2322,7 +2338,7 @@
         <v>0.97784810126582289</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>29</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>0.94932781799379529</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>30</v>
       </c>
@@ -2554,7 +2570,7 @@
         <v>0.97055730809674035</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" s="47" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>31</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>0.96551724137931028</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2700,7 +2716,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
@@ -2806,7 +2822,7 @@
         <v>0.98795180722891562</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>37</v>
       </c>
@@ -2914,7 +2930,7 @@
         <v>0.99020674646354734</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" s="47" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>38</v>
       </c>
@@ -3022,7 +3038,7 @@
         <v>0.98796498905908092</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3053,7 +3069,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57" t="s">
         <v>24</v>
       </c>
@@ -3133,7 +3149,7 @@
         <v>0.98923573735199133</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>34</v>
       </c>
@@ -3214,7 +3230,7 @@
         <v>0.9913419913419913</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>32</v>
       </c>
@@ -3292,7 +3308,7 @@
         <v>0.99244875943905064</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>33</v>
       </c>
@@ -3373,7 +3389,7 @@
         <v>0.99029126213592233</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>35</v>
       </c>
@@ -3451,7 +3467,7 @@
         <v>0.99030172413793105</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" s="76" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
         <v>36</v>
       </c>
@@ -3529,8 +3545,8 @@
         <v>0.98905908096280082</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57" t="s">
         <v>32</v>
       </c>
@@ -3608,7 +3624,7 @@
         <v>0.99244875943905064</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" s="76" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
         <v>32</v>
       </c>
@@ -3686,7 +3702,7 @@
         <v>0.99232456140350878</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" s="4" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -3716,7 +3732,7 @@
       <c r="AI21" s="17"/>
       <c r="AK21" s="17"/>
     </row>
-    <row r="22" spans="1:39" s="82" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" s="82" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>39</v>
       </c>
@@ -3783,7 +3799,7 @@
         <v>0.99446290143964566</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -3813,7 +3829,7 @@
       <c r="AI23" s="17"/>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -3846,7 +3862,7 @@
       <c r="AI24" s="17"/>
       <c r="AK24" s="17"/>
     </row>
-    <row r="25" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -3876,7 +3892,7 @@
       <c r="AI25" s="17"/>
       <c r="AK25" s="17"/>
     </row>
-    <row r="26" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3906,7 +3922,7 @@
       <c r="AI26" s="17"/>
       <c r="AK26" s="17"/>
     </row>
-    <row r="27" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -3936,7 +3952,7 @@
       <c r="AI27" s="17"/>
       <c r="AK27" s="17"/>
     </row>
-    <row r="28" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3966,7 +3982,7 @@
       <c r="AI28" s="17"/>
       <c r="AK28" s="17"/>
     </row>
-    <row r="29" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3996,7 +4012,7 @@
       <c r="AI29" s="17"/>
       <c r="AK29" s="17"/>
     </row>
-    <row r="30" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -4026,7 +4042,7 @@
       <c r="AI30" s="17"/>
       <c r="AK30" s="17"/>
     </row>
-    <row r="31" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -4056,7 +4072,7 @@
       <c r="AI31" s="17"/>
       <c r="AK31" s="17"/>
     </row>
-    <row r="32" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -4086,7 +4102,7 @@
       <c r="AI32" s="17"/>
       <c r="AK32" s="17"/>
     </row>
-    <row r="33" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4125,7 +4141,7 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -4156,7 +4172,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -4187,7 +4203,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -4218,7 +4234,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -4249,7 +4265,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -4280,7 +4296,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4311,7 +4327,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -4342,7 +4358,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -4373,7 +4389,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -4404,7 +4420,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -4434,7 +4450,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -4465,7 +4481,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4496,7 +4512,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -4527,7 +4543,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -4558,7 +4574,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -4589,7 +4605,7 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -4620,7 +4636,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -4651,7 +4667,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4682,7 +4698,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -4713,7 +4729,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -4744,7 +4760,7 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -4775,7 +4791,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -4806,7 +4822,7 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -4837,7 +4853,7 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -4853,7 +4869,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -4869,7 +4885,7 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -4885,7 +4901,7 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -4901,7 +4917,7 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -4917,7 +4933,7 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
@@ -4933,7 +4949,7 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -4949,7 +4965,7 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
@@ -4965,7 +4981,7 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -4981,7 +4997,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
@@ -4997,7 +5013,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
@@ -5013,7 +5029,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
@@ -5029,7 +5045,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -5045,7 +5061,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
@@ -5061,7 +5077,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -5077,7 +5093,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
@@ -5093,7 +5109,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -5109,7 +5125,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
@@ -5125,7 +5141,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -5141,7 +5157,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
@@ -5157,7 +5173,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
@@ -5173,7 +5189,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
@@ -5189,7 +5205,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -5205,7 +5221,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
@@ -5221,7 +5237,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
@@ -5237,7 +5253,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
@@ -5253,7 +5269,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
@@ -5269,7 +5285,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" spans="18:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
@@ -5299,53 +5315,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47D96A-367B-44D4-A207-423C8F54CE2A}">
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" customWidth="1"/>
-    <col min="19" max="19" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.5" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
@@ -5359,10 +5374,10 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="227" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="228" t="s">
+      <c r="R1" s="218" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="219" t="s">
         <v>56</v>
       </c>
       <c r="T1" s="1"/>
@@ -5375,7 +5390,7 @@
       <c r="W1" s="51"/>
       <c r="AN1" s="51"/>
     </row>
-    <row r="2" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="86" t="s">
         <v>2</v>
       </c>
@@ -5418,13 +5433,13 @@
       <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="226" t="s">
+      <c r="Q2" s="217" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="229" t="s">
+      <c r="S2" s="220" t="s">
         <v>43</v>
       </c>
       <c r="T2" s="91" t="s">
@@ -5515,7 +5530,7 @@
       <c r="AY2" s="51"/>
       <c r="AZ2" s="51"/>
     </row>
-    <row r="3" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="98"/>
       <c r="C3" s="102"/>
@@ -5569,8 +5584,8 @@
       <c r="AY3" s="51"/>
       <c r="AZ3" s="51"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" s="228" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="113" t="s">
@@ -5660,42 +5675,42 @@
       <c r="AL4" s="72"/>
       <c r="AM4" s="96"/>
       <c r="AN4" s="56"/>
-      <c r="AO4" s="192">
+      <c r="AO4" s="183">
         <f>1-Y4/X4</f>
         <v>1.2610340479193294E-3</v>
       </c>
-      <c r="AP4" s="193">
+      <c r="AP4" s="184">
         <f>1-AA4/Z4</f>
         <v>4.2998897464167629E-2</v>
       </c>
-      <c r="AQ4" s="193">
+      <c r="AQ4" s="184">
         <f>1-AC4/AB4</f>
         <v>7.4152542372881269E-2</v>
       </c>
-      <c r="AR4" s="193">
+      <c r="AR4" s="184">
         <f>1-AE4/AD4</f>
         <v>3.5106382978723372E-2</v>
       </c>
-      <c r="AS4" s="193">
+      <c r="AS4" s="184">
         <f>1-AG4/AF4</f>
         <v>2.4968789013732895E-3</v>
       </c>
-      <c r="AT4" s="193">
+      <c r="AT4" s="184">
         <f>1-AI4/AH4</f>
         <v>3.0949839914621191E-2</v>
       </c>
-      <c r="AU4" s="194">
+      <c r="AU4" s="185">
         <f>1-AK4/AJ4</f>
         <v>3.4482758620689724E-2</v>
       </c>
-      <c r="AV4" s="208"/>
+      <c r="AV4" s="199"/>
       <c r="AW4" s="51"/>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
       <c r="AZ4" s="51"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="183"/>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" s="229"/>
       <c r="B5" s="99" t="s">
         <v>52</v>
       </c>
@@ -5781,44 +5796,44 @@
       <c r="AL5" s="72"/>
       <c r="AM5" s="96"/>
       <c r="AN5" s="56"/>
-      <c r="AO5" s="195">
+      <c r="AO5" s="186">
         <f t="shared" ref="AO5:AO8" si="0">1-Y5/X5</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="191">
+      <c r="AP5" s="182">
         <f t="shared" ref="AP5:AP8" si="1">1-AA5/Z5</f>
         <v>2.6402640264026389E-2</v>
       </c>
-      <c r="AQ5" s="191">
+      <c r="AQ5" s="182">
         <f t="shared" ref="AQ5:AQ8" si="2">1-AC5/AB5</f>
         <v>2.5274725274725296E-2</v>
       </c>
-      <c r="AR5" s="191">
+      <c r="AR5" s="182">
         <f t="shared" ref="AR5:AR8" si="3">1-AE5/AD5</f>
         <v>2.2678185745140356E-2</v>
       </c>
-      <c r="AS5" s="191">
+      <c r="AS5" s="182">
         <f>MAX(1-AG5/AF5,0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="191">
+      <c r="AT5" s="182">
         <f t="shared" ref="AT5:AT8" si="4">1-AI5/AH5</f>
         <v>1.413043478260867E-2</v>
       </c>
-      <c r="AU5" s="196">
+      <c r="AU5" s="187">
         <f t="shared" ref="AU5:AU8" si="5">1-AK5/AJ5</f>
         <v>1.2048192771084376E-2</v>
       </c>
-      <c r="AV5" s="208"/>
+      <c r="AV5" s="199"/>
       <c r="AW5" s="51"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="51"/>
       <c r="AZ5" s="51"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="183"/>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A6" s="229"/>
       <c r="B6" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>20</v>
@@ -5867,12 +5882,12 @@
       <c r="U6" s="38"/>
       <c r="V6" s="111"/>
       <c r="W6" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="X6" s="214">
+        <v>66</v>
+      </c>
+      <c r="X6" s="205">
         <v>0.81100000000000005</v>
       </c>
-      <c r="Y6" s="213">
+      <c r="Y6" s="204">
         <v>0.80900000000000005</v>
       </c>
       <c r="Z6" s="71">
@@ -5893,10 +5908,10 @@
       <c r="AE6" s="71">
         <v>0.92500000000000004</v>
       </c>
-      <c r="AF6" s="188">
+      <c r="AF6" s="179">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AG6" s="188">
+      <c r="AG6" s="179">
         <v>0.81599999999999995</v>
       </c>
       <c r="AH6" s="170">
@@ -5914,44 +5929,44 @@
       <c r="AL6" s="90"/>
       <c r="AM6" s="93"/>
       <c r="AN6" s="51"/>
-      <c r="AO6" s="195">
+      <c r="AO6" s="186">
         <f t="shared" si="0"/>
         <v>2.4660912453761119E-3</v>
       </c>
-      <c r="AP6" s="191">
+      <c r="AP6" s="182">
         <f t="shared" si="1"/>
         <v>3.6105032822757122E-2</v>
       </c>
-      <c r="AQ6" s="191">
+      <c r="AQ6" s="182">
         <f t="shared" si="2"/>
         <v>9.2975206611570216E-2</v>
       </c>
-      <c r="AR6" s="191">
+      <c r="AR6" s="182">
         <f t="shared" si="3"/>
         <v>5.0308008213552302E-2</v>
       </c>
-      <c r="AS6" s="191">
+      <c r="AS6" s="182">
         <f t="shared" ref="AS6:AS8" si="6">1-AG6/AF6</f>
         <v>2.4449877750610804E-3</v>
       </c>
-      <c r="AT6" s="225">
+      <c r="AT6" s="216">
         <f t="shared" si="4"/>
         <v>4.6986721144024468E-2</v>
       </c>
-      <c r="AU6" s="196">
+      <c r="AU6" s="187">
         <f t="shared" si="5"/>
         <v>5.0672182006204713E-2</v>
       </c>
-      <c r="AV6" s="208"/>
+      <c r="AV6" s="199"/>
       <c r="AW6" s="51"/>
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
       <c r="AZ6" s="51"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="183"/>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A7" s="229"/>
       <c r="B7" s="99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>20</v>
@@ -6004,16 +6019,16 @@
       <c r="Y7" s="71">
         <v>0.80700000000000005</v>
       </c>
-      <c r="Z7" s="213">
+      <c r="Z7" s="204">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AA7" s="213">
+      <c r="AA7" s="204">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AB7" s="213">
+      <c r="AB7" s="204">
         <v>0.96599999999999997</v>
       </c>
-      <c r="AC7" s="213">
+      <c r="AC7" s="204">
         <v>0.88500000000000001</v>
       </c>
       <c r="AD7" s="170">
@@ -6022,10 +6037,10 @@
       <c r="AE7" s="170">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AF7" s="213">
+      <c r="AF7" s="204">
         <v>0.81699999999999995</v>
       </c>
-      <c r="AG7" s="213">
+      <c r="AG7" s="204">
         <v>0.81599999999999995</v>
       </c>
       <c r="AH7" s="71">
@@ -6043,44 +6058,44 @@
       <c r="AL7" s="90"/>
       <c r="AM7" s="93"/>
       <c r="AN7" s="51"/>
-      <c r="AO7" s="195">
+      <c r="AO7" s="186">
         <f t="shared" si="0"/>
         <v>2.4721878862793423E-3</v>
       </c>
-      <c r="AP7" s="191">
+      <c r="AP7" s="182">
         <f t="shared" si="1"/>
         <v>3.1385281385281405E-2</v>
       </c>
-      <c r="AQ7" s="191">
+      <c r="AQ7" s="182">
         <f t="shared" si="2"/>
         <v>8.3850931677018625E-2</v>
       </c>
-      <c r="AR7" s="225">
+      <c r="AR7" s="216">
         <f t="shared" si="3"/>
         <v>4.3298969072164906E-2</v>
       </c>
-      <c r="AS7" s="191">
+      <c r="AS7" s="182">
         <f t="shared" si="6"/>
         <v>1.223990208078285E-3</v>
       </c>
-      <c r="AT7" s="191">
+      <c r="AT7" s="182">
         <f t="shared" si="4"/>
         <v>4.2181069958847628E-2</v>
       </c>
-      <c r="AU7" s="196">
+      <c r="AU7" s="187">
         <f t="shared" si="5"/>
         <v>2.2151898734177111E-2</v>
       </c>
-      <c r="AV7" s="208"/>
+      <c r="AV7" s="199"/>
       <c r="AW7" s="51"/>
       <c r="AX7" s="51"/>
       <c r="AY7" s="51"/>
       <c r="AZ7" s="51"/>
     </row>
-    <row r="8" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="184"/>
+    <row r="8" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="230"/>
       <c r="B8" s="101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="73" t="s">
         <v>20</v>
@@ -6159,10 +6174,10 @@
       <c r="AG8" s="79">
         <v>0.81399999999999995</v>
       </c>
-      <c r="AH8" s="212">
+      <c r="AH8" s="203">
         <v>0.97299999999999998</v>
       </c>
-      <c r="AI8" s="212">
+      <c r="AI8" s="203">
         <v>0.93200000000000005</v>
       </c>
       <c r="AJ8" s="174">
@@ -6174,41 +6189,41 @@
       <c r="AL8" s="90"/>
       <c r="AM8" s="93"/>
       <c r="AN8" s="51"/>
-      <c r="AO8" s="197">
+      <c r="AO8" s="188">
         <f t="shared" si="0"/>
         <v>1.2345679012345512E-3</v>
       </c>
-      <c r="AP8" s="198">
+      <c r="AP8" s="189">
         <f t="shared" si="1"/>
         <v>3.2608695652173947E-2</v>
       </c>
-      <c r="AQ8" s="198">
+      <c r="AQ8" s="189">
         <f t="shared" si="2"/>
         <v>9.213250517598337E-2</v>
       </c>
-      <c r="AR8" s="198">
+      <c r="AR8" s="189">
         <f t="shared" si="3"/>
         <v>4.9382716049382602E-2</v>
       </c>
-      <c r="AS8" s="198">
+      <c r="AS8" s="189">
         <f t="shared" si="6"/>
         <v>2.450980392156854E-3</v>
       </c>
-      <c r="AT8" s="198">
+      <c r="AT8" s="189">
         <f t="shared" si="4"/>
         <v>4.2137718396711099E-2</v>
       </c>
-      <c r="AU8" s="223">
+      <c r="AU8" s="214">
         <f t="shared" si="5"/>
         <v>2.9442691903259655E-2</v>
       </c>
-      <c r="AV8" s="208"/>
+      <c r="AV8" s="199"/>
       <c r="AW8" s="51"/>
       <c r="AX8" s="51"/>
       <c r="AY8" s="51"/>
       <c r="AZ8" s="51"/>
     </row>
-    <row r="9" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="100"/>
       <c r="C9" s="95"/>
@@ -6249,21 +6264,21 @@
       <c r="AL9" s="72"/>
       <c r="AM9" s="96"/>
       <c r="AN9" s="56"/>
-      <c r="AO9" s="209"/>
+      <c r="AO9" s="200"/>
       <c r="AP9" s="167"/>
       <c r="AQ9" s="167"/>
       <c r="AR9" s="167"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="167"/>
-      <c r="AV9" s="208"/>
+      <c r="AV9" s="199"/>
       <c r="AW9" s="51"/>
       <c r="AX9" s="51"/>
       <c r="AY9" s="51"/>
       <c r="AZ9" s="51"/>
     </row>
-    <row r="10" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179" t="s">
+    <row r="10" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="225" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="113" t="s">
@@ -6330,10 +6345,10 @@
       </c>
       <c r="AF10" s="72"/>
       <c r="AG10" s="72"/>
-      <c r="AH10" s="215">
+      <c r="AH10" s="206">
         <v>0.91200000000000003</v>
       </c>
-      <c r="AI10" s="216">
+      <c r="AI10" s="207">
         <v>0.90800000000000003</v>
       </c>
       <c r="AJ10" s="60">
@@ -6345,26 +6360,26 @@
       <c r="AL10" s="72"/>
       <c r="AM10" s="96"/>
       <c r="AN10" s="56"/>
-      <c r="AO10" s="209"/>
+      <c r="AO10" s="200"/>
       <c r="AP10" s="167"/>
       <c r="AQ10" s="167"/>
-      <c r="AR10" s="199">
+      <c r="AR10" s="190">
         <f>1-AE10/AD10</f>
         <v>7.5150300601202313E-2</v>
       </c>
       <c r="AS10" s="167"/>
-      <c r="AT10" s="202">
+      <c r="AT10" s="193">
         <f>1-AI10/AH10</f>
         <v>4.3859649122807154E-3</v>
       </c>
-      <c r="AU10" s="203">
+      <c r="AU10" s="194">
         <f>1-AK10/AJ10</f>
         <v>1.0764262648008671E-2</v>
       </c>
-      <c r="AV10" s="208"/>
-    </row>
-    <row r="11" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+      <c r="AV10" s="199"/>
+    </row>
+    <row r="11" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="226"/>
       <c r="B11" s="99" t="s">
         <v>54</v>
       </c>
@@ -6440,26 +6455,26 @@
       <c r="AL11" s="72"/>
       <c r="AM11" s="96"/>
       <c r="AN11" s="56"/>
-      <c r="AO11" s="209"/>
+      <c r="AO11" s="200"/>
       <c r="AP11" s="167"/>
       <c r="AQ11" s="167"/>
-      <c r="AR11" s="200">
+      <c r="AR11" s="191">
         <f t="shared" ref="AR11:AR16" si="7">1-AE11/AD11</f>
         <v>6.1287027579162379E-2</v>
       </c>
       <c r="AS11" s="167"/>
-      <c r="AT11" s="204">
+      <c r="AT11" s="195">
         <f t="shared" ref="AT11:AT16" si="8">1-AI11/AH11</f>
         <v>2.2026431718061845E-3</v>
       </c>
-      <c r="AU11" s="205">
+      <c r="AU11" s="196">
         <f t="shared" ref="AU11:AU16" si="9">1-AK11/AJ11</f>
         <v>8.6580086580086979E-3</v>
       </c>
-      <c r="AV11" s="208"/>
-    </row>
-    <row r="12" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
+      <c r="AV11" s="199"/>
+    </row>
+    <row r="12" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="226"/>
       <c r="B12" s="99" t="s">
         <v>55</v>
       </c>
@@ -6524,37 +6539,37 @@
       <c r="AI12" s="68">
         <v>0.90400000000000003</v>
       </c>
-      <c r="AJ12" s="217">
+      <c r="AJ12" s="208">
         <v>0.92700000000000005</v>
       </c>
-      <c r="AK12" s="218">
+      <c r="AK12" s="209">
         <v>0.92</v>
       </c>
       <c r="AL12" s="72"/>
       <c r="AM12" s="96"/>
       <c r="AN12" s="56"/>
-      <c r="AO12" s="209"/>
+      <c r="AO12" s="200"/>
       <c r="AP12" s="167"/>
       <c r="AQ12" s="167"/>
-      <c r="AR12" s="200">
+      <c r="AR12" s="191">
         <f t="shared" si="7"/>
         <v>5.7435897435897387E-2</v>
       </c>
       <c r="AS12" s="167"/>
-      <c r="AT12" s="204">
+      <c r="AT12" s="195">
         <f t="shared" si="8"/>
         <v>3.3076074972436809E-3</v>
       </c>
-      <c r="AU12" s="205">
+      <c r="AU12" s="196">
         <f t="shared" si="9"/>
         <v>7.5512405609493571E-3</v>
       </c>
-      <c r="AV12" s="208"/>
-    </row>
-    <row r="13" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
+      <c r="AV12" s="199"/>
+    </row>
+    <row r="13" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="226"/>
       <c r="B13" s="99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>20</v>
@@ -6628,28 +6643,28 @@
       <c r="AL13" s="72"/>
       <c r="AM13" s="96"/>
       <c r="AN13" s="56"/>
-      <c r="AO13" s="209"/>
+      <c r="AO13" s="200"/>
       <c r="AP13" s="167"/>
       <c r="AQ13" s="167"/>
-      <c r="AR13" s="200">
+      <c r="AR13" s="191">
         <f t="shared" si="7"/>
         <v>6.8825910931174072E-2</v>
       </c>
       <c r="AS13" s="167"/>
-      <c r="AT13" s="204">
+      <c r="AT13" s="195">
         <f t="shared" si="8"/>
         <v>5.5005500550054931E-3</v>
       </c>
-      <c r="AU13" s="205">
+      <c r="AU13" s="196">
         <f t="shared" si="9"/>
         <v>9.7087378640776656E-3</v>
       </c>
-      <c r="AV13" s="208"/>
-    </row>
-    <row r="14" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
+      <c r="AV13" s="199"/>
+    </row>
+    <row r="14" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="226"/>
       <c r="B14" s="99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>20</v>
@@ -6723,28 +6738,28 @@
       <c r="AL14" s="72"/>
       <c r="AM14" s="96"/>
       <c r="AN14" s="56"/>
-      <c r="AO14" s="209"/>
+      <c r="AO14" s="200"/>
       <c r="AP14" s="167"/>
       <c r="AQ14" s="167"/>
-      <c r="AR14" s="200">
+      <c r="AR14" s="191">
         <f t="shared" si="7"/>
         <v>6.7676767676767668E-2</v>
       </c>
       <c r="AS14" s="167"/>
-      <c r="AT14" s="204">
+      <c r="AT14" s="195">
         <f t="shared" si="8"/>
         <v>4.3907793633369829E-3</v>
       </c>
-      <c r="AU14" s="205">
+      <c r="AU14" s="196">
         <f t="shared" si="9"/>
         <v>9.6982758620689502E-3</v>
       </c>
-      <c r="AV14" s="208"/>
-    </row>
-    <row r="15" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="180"/>
+      <c r="AV14" s="199"/>
+    </row>
+    <row r="15" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="226"/>
       <c r="B15" s="99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>20</v>
@@ -6816,28 +6831,28 @@
       <c r="AL15" s="72"/>
       <c r="AM15" s="96"/>
       <c r="AN15" s="56"/>
-      <c r="AO15" s="209"/>
+      <c r="AO15" s="200"/>
       <c r="AP15" s="167"/>
       <c r="AQ15" s="167"/>
-      <c r="AR15" s="200">
+      <c r="AR15" s="191">
         <f t="shared" si="7"/>
         <v>5.7851239669421406E-2</v>
       </c>
       <c r="AS15" s="167"/>
-      <c r="AT15" s="204">
+      <c r="AT15" s="195">
         <f t="shared" si="8"/>
         <v>4.4296788482834915E-3</v>
       </c>
-      <c r="AU15" s="205">
+      <c r="AU15" s="196">
         <f t="shared" si="9"/>
         <v>1.0940919037199182E-2</v>
       </c>
-      <c r="AV15" s="208"/>
-    </row>
-    <row r="16" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="181"/>
+      <c r="AV15" s="199"/>
+    </row>
+    <row r="16" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="227"/>
       <c r="B16" s="101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="73" t="s">
         <v>20</v>
@@ -6882,10 +6897,10 @@
       <c r="AA16" s="90"/>
       <c r="AB16" s="90"/>
       <c r="AC16" s="90"/>
-      <c r="AD16" s="219">
+      <c r="AD16" s="210">
         <v>0.93200000000000005</v>
       </c>
-      <c r="AE16" s="220">
+      <c r="AE16" s="211">
         <v>0.90700000000000003</v>
       </c>
       <c r="AF16" s="72"/>
@@ -6905,29 +6920,29 @@
       <c r="AL16" s="90"/>
       <c r="AM16" s="93"/>
       <c r="AN16" s="51"/>
-      <c r="AO16" s="209"/>
+      <c r="AO16" s="200"/>
       <c r="AP16" s="167"/>
       <c r="AQ16" s="167"/>
-      <c r="AR16" s="201">
+      <c r="AR16" s="192">
         <f t="shared" si="7"/>
         <v>2.6824034334763991E-2</v>
       </c>
       <c r="AS16" s="167"/>
-      <c r="AT16" s="206">
+      <c r="AT16" s="197">
         <f t="shared" si="8"/>
         <v>1.1198208286674616E-3</v>
       </c>
-      <c r="AU16" s="207">
+      <c r="AU16" s="198">
         <f t="shared" si="9"/>
         <v>5.5370985603543366E-3</v>
       </c>
-      <c r="AV16" s="208"/>
+      <c r="AV16" s="199"/>
       <c r="AW16" s="51"/>
       <c r="AX16" s="51"/>
       <c r="AY16" s="51"/>
       <c r="AZ16" s="51"/>
     </row>
-    <row r="17" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
@@ -6968,23 +6983,23 @@
       <c r="AL17" s="72"/>
       <c r="AM17" s="96"/>
       <c r="AN17" s="56"/>
-      <c r="AO17" s="209"/>
+      <c r="AO17" s="200"/>
       <c r="AP17" s="167"/>
       <c r="AQ17" s="167"/>
       <c r="AR17" s="167"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="167"/>
-      <c r="AV17" s="208"/>
+      <c r="AV17" s="199"/>
       <c r="AW17" s="51"/>
       <c r="AX17" s="51"/>
       <c r="AY17" s="51"/>
       <c r="AZ17" s="51"/>
     </row>
-    <row r="18" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="115" t="s">
         <v>20</v>
@@ -7037,7 +7052,7 @@
       </c>
       <c r="AF18" s="72"/>
       <c r="AG18" s="72"/>
-      <c r="AH18" s="221">
+      <c r="AH18" s="212">
         <v>0.92200000000000004</v>
       </c>
       <c r="AI18" s="173">
@@ -7052,7 +7067,7 @@
       <c r="AL18" s="72"/>
       <c r="AM18" s="96"/>
       <c r="AN18" s="56"/>
-      <c r="AO18" s="209"/>
+      <c r="AO18" s="200"/>
       <c r="AP18" s="167"/>
       <c r="AQ18" s="167"/>
       <c r="AR18" s="166">
@@ -7068,13 +7083,13 @@
         <f>1-AK18/AJ18</f>
         <v>1.6322089227421177E-2</v>
       </c>
-      <c r="AV18" s="208"/>
+      <c r="AV18" s="199"/>
       <c r="AW18" s="51"/>
       <c r="AX18" s="51"/>
       <c r="AY18" s="51"/>
       <c r="AZ18" s="51"/>
     </row>
-    <row r="19" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -7115,20 +7130,20 @@
       <c r="AL19" s="72"/>
       <c r="AM19" s="96"/>
       <c r="AN19" s="56"/>
-      <c r="AO19" s="209"/>
+      <c r="AO19" s="200"/>
       <c r="AP19" s="167"/>
       <c r="AQ19" s="167"/>
       <c r="AR19" s="167"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="167"/>
-      <c r="AV19" s="208"/>
+      <c r="AV19" s="199"/>
       <c r="AW19" s="51"/>
       <c r="AX19" s="51"/>
       <c r="AY19" s="51"/>
       <c r="AZ19" s="51"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="113" t="s">
         <v>47</v>
@@ -7174,7 +7189,7 @@
       <c r="U20" s="60"/>
       <c r="V20" s="119"/>
       <c r="W20" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X20" s="95"/>
       <c r="Y20" s="72"/>
@@ -7205,29 +7220,29 @@
       <c r="AL20" s="72"/>
       <c r="AM20" s="96"/>
       <c r="AN20" s="56"/>
-      <c r="AO20" s="209"/>
+      <c r="AO20" s="200"/>
       <c r="AP20" s="167"/>
       <c r="AQ20" s="167"/>
-      <c r="AR20" s="199">
+      <c r="AR20" s="190">
         <f>1-AE20/AD20</f>
         <v>4.658385093167694E-2</v>
       </c>
       <c r="AS20" s="167"/>
-      <c r="AT20" s="224">
+      <c r="AT20" s="215">
         <f>1-AI20/AH20</f>
         <v>2.9288702928870203E-2</v>
       </c>
-      <c r="AU20" s="203">
+      <c r="AU20" s="194">
         <f>1-AK20/AJ20</f>
         <v>1.1714589989350266E-2</v>
       </c>
-      <c r="AV20" s="208"/>
+      <c r="AV20" s="199"/>
       <c r="AW20" s="51"/>
       <c r="AX20" s="51"/>
       <c r="AY20" s="51"/>
       <c r="AZ20" s="51"/>
     </row>
-    <row r="21" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="101" t="s">
         <v>48</v>
@@ -7302,29 +7317,29 @@
       <c r="AL21" s="72"/>
       <c r="AM21" s="96"/>
       <c r="AN21" s="56"/>
-      <c r="AO21" s="209"/>
+      <c r="AO21" s="200"/>
       <c r="AP21" s="167"/>
       <c r="AQ21" s="167"/>
-      <c r="AR21" s="201">
+      <c r="AR21" s="192">
         <f>1-AE21/AD21</f>
         <v>7.0103092783505128E-2</v>
       </c>
       <c r="AS21" s="167"/>
-      <c r="AT21" s="206">
+      <c r="AT21" s="197">
         <f>1-AI21/AH21</f>
         <v>4.4742729306487261E-3</v>
       </c>
-      <c r="AU21" s="223">
+      <c r="AU21" s="214">
         <f>1-AK21/AJ21</f>
         <v>7.6754385964912242E-3</v>
       </c>
-      <c r="AV21" s="208"/>
+      <c r="AV21" s="199"/>
       <c r="AW21" s="51"/>
       <c r="AX21" s="51"/>
       <c r="AY21" s="51"/>
       <c r="AZ21" s="51"/>
     </row>
-    <row r="22" spans="1:52" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
@@ -7365,23 +7380,23 @@
       <c r="AL22" s="72"/>
       <c r="AM22" s="96"/>
       <c r="AN22" s="56"/>
-      <c r="AO22" s="209"/>
+      <c r="AO22" s="200"/>
       <c r="AP22" s="167"/>
       <c r="AQ22" s="167"/>
       <c r="AR22" s="167"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="167"/>
-      <c r="AV22" s="208"/>
+      <c r="AV22" s="199"/>
       <c r="AW22" s="51"/>
       <c r="AX22" s="51"/>
       <c r="AY22" s="51"/>
       <c r="AZ22" s="51"/>
     </row>
-    <row r="23" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="115" t="s">
         <v>20</v>
@@ -7396,7 +7411,7 @@
       <c r="G23" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="115" t="s">
+      <c r="H23" s="231" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="129" t="s">
@@ -7425,7 +7440,7 @@
         <v>20</v>
       </c>
       <c r="R23" s="145"/>
-      <c r="S23" s="230" t="s">
+      <c r="S23" s="221" t="s">
         <v>20</v>
       </c>
       <c r="T23" s="144" t="s">
@@ -7434,7 +7449,7 @@
       <c r="U23" s="116"/>
       <c r="V23" s="117"/>
       <c r="W23" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X23" s="155"/>
       <c r="Y23" s="80"/>
@@ -7448,30 +7463,30 @@
       <c r="AG23" s="80"/>
       <c r="AH23" s="80"/>
       <c r="AI23" s="80"/>
-      <c r="AJ23" s="186">
+      <c r="AJ23" s="177">
         <v>0.96</v>
       </c>
-      <c r="AK23" s="187">
+      <c r="AK23" s="178">
         <v>0.93</v>
       </c>
       <c r="AL23" s="172">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AM23" s="185">
+      <c r="AM23" s="176">
         <v>0.94099999999999995</v>
       </c>
       <c r="AN23" s="56"/>
-      <c r="AO23" s="210"/>
-      <c r="AP23" s="211"/>
-      <c r="AQ23" s="211"/>
-      <c r="AR23" s="211"/>
-      <c r="AS23" s="211"/>
-      <c r="AT23" s="211"/>
+      <c r="AO23" s="201"/>
+      <c r="AP23" s="202"/>
+      <c r="AQ23" s="202"/>
+      <c r="AR23" s="202"/>
+      <c r="AS23" s="202"/>
+      <c r="AT23" s="202"/>
       <c r="AU23" s="168">
         <f>1-AK23/AJ23</f>
         <v>3.1249999999999889E-2</v>
       </c>
-      <c r="AV23" s="222">
+      <c r="AV23" s="213">
         <f>1-AM23/AL23</f>
         <v>4.8533872598584438E-2</v>
       </c>
@@ -7480,7 +7495,7 @@
       <c r="AY23" s="51"/>
       <c r="AZ23" s="51"/>
     </row>
-    <row r="24" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B24" s="69"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -7497,10 +7512,8 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="231" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="232"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -7522,17 +7535,17 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
       <c r="AN24" s="56"/>
-      <c r="AO24" s="189"/>
-      <c r="AP24" s="189"/>
-      <c r="AQ24" s="189"/>
-      <c r="AR24" s="189"/>
-      <c r="AS24" s="189"/>
-      <c r="AT24" s="189"/>
-      <c r="AU24" s="189"/>
-      <c r="AV24" s="189"/>
+      <c r="AO24" s="180"/>
+      <c r="AP24" s="180"/>
+      <c r="AQ24" s="180"/>
+      <c r="AR24" s="180"/>
+      <c r="AS24" s="180"/>
+      <c r="AT24" s="180"/>
+      <c r="AU24" s="180"/>
+      <c r="AV24" s="180"/>
       <c r="AW24" s="4"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B25" s="69"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -7572,22 +7585,22 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="56"/>
-      <c r="AR25" s="190">
+      <c r="AR25" s="181">
         <f>+AR10-AR16</f>
         <v>4.8326266266438322E-2</v>
       </c>
-      <c r="AS25" s="190"/>
-      <c r="AT25" s="190">
+      <c r="AS25" s="181"/>
+      <c r="AT25" s="181">
         <f>+AT10-AT16</f>
         <v>3.2661440836132538E-3</v>
       </c>
-      <c r="AU25" s="190">
+      <c r="AU25" s="181">
         <f>+AU10-AU16</f>
         <v>5.2271640876543346E-3</v>
       </c>
       <c r="AW25" s="4"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B26" s="69"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7616,51 +7629,51 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="190">
+      <c r="AD26" s="181">
         <f>+AD18-AD16</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="AE26" s="190">
+      <c r="AE26" s="181">
         <f>+AE18-AE16</f>
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="190">
+      <c r="AH26" s="181">
         <f>+AH18-AH16</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="AI26" s="190">
+      <c r="AI26" s="181">
         <f>+AI18-AI16</f>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="AJ26" s="190">
+      <c r="AJ26" s="181">
         <f>+AJ18-AJ16</f>
         <v>1.6000000000000014E-2</v>
       </c>
-      <c r="AK26" s="190">
+      <c r="AK26" s="181">
         <f>+AK18-AK16</f>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="56"/>
-      <c r="AR26" s="190">
+      <c r="AR26" s="181">
         <f>+AR18-AR16</f>
         <v>-1.1639652556022062E-2</v>
       </c>
-      <c r="AS26" s="190"/>
-      <c r="AT26" s="190">
+      <c r="AS26" s="181"/>
+      <c r="AT26" s="181">
         <f>+AT18-AT16</f>
         <v>1.1895363553111271E-2</v>
       </c>
-      <c r="AU26" s="190">
+      <c r="AU26" s="181">
         <f>+AU18-AU16</f>
         <v>1.0784990667066841E-2</v>
       </c>
       <c r="AW26" s="4"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B27" s="69"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -7701,7 +7714,7 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="56"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B28" s="69"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -7742,7 +7755,7 @@
       <c r="AM28" s="4"/>
       <c r="AN28" s="56"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B29" s="69"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -7783,7 +7796,7 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="56"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B30" s="51"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -7824,7 +7837,7 @@
       <c r="AM30" s="4"/>
       <c r="AN30" s="56"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B31" s="69"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -7865,7 +7878,7 @@
       <c r="AM31" s="4"/>
       <c r="AN31" s="56"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B32" s="69"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -7906,7 +7919,7 @@
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -7947,7 +7960,7 @@
       <c r="AM33" s="4"/>
       <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B34" s="69"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -7988,7 +8001,7 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B35" s="69"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8029,7 +8042,7 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B36" s="69"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -8070,7 +8083,7 @@
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B37" s="69"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -8111,7 +8124,7 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B38" s="89"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -8152,7 +8165,7 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -8193,9 +8206,8 @@
       <c r="AN39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="R24:S24"/>
     <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supervised_Learning/Scorecard - F1 values.xlsx
+++ b/Supervised_Learning/Scorecard - F1 values.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Documents/GitHub/DSaML_Projects/Supervised_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3D865-E4C3-994A-9FB4-FB9D58B322A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D851B106-C901-614D-8931-37FA9357F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="680" windowWidth="32920" windowHeight="18560" activeTab="1" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
+    <workbookView xWindow="1540" yWindow="680" windowWidth="32920" windowHeight="20400" activeTab="2" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="transposed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>jfred:</t>
         </r>
@@ -115,7 +116,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1st Trial - Grid Search,  Hyperparameters set for each model, Feature Selection with 6 Features chosen. Number of selected Features varied in each iteration</t>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="73">
   <si>
     <t>RoomType</t>
   </si>
@@ -407,6 +408,15 @@
   <si>
     <t>Baseline 3.0 - 14+1 Features</t>
   </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>F1 Score - Training Set</t>
+  </si>
+  <si>
+    <t>F1 Score Delta</t>
+  </si>
 </sst>
 </file>
 
@@ -416,7 +426,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,19 +454,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -506,7 +503,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +546,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1041,12 +1044,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1333,66 +1527,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,19 +1599,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1612,7 +1806,7 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,6 +1817,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1650,7 +1847,434 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2104,15 +2728,15 @@
       <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="222" t="s">
+      <c r="AG1" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="223"/>
-      <c r="AJ1" s="223"/>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="224"/>
+      <c r="AH1" s="224"/>
+      <c r="AI1" s="224"/>
+      <c r="AJ1" s="224"/>
+      <c r="AK1" s="224"/>
+      <c r="AL1" s="224"/>
+      <c r="AM1" s="225"/>
     </row>
     <row r="2" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
@@ -5315,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47D96A-367B-44D4-A207-423C8F54CE2A}">
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23:AV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5585,7 +6209,7 @@
       <c r="AZ3" s="51"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="229" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="113" t="s">
@@ -5710,7 +6334,7 @@
       <c r="AZ4" s="51"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="229"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="99" t="s">
         <v>52</v>
       </c>
@@ -5831,7 +6455,7 @@
       <c r="AZ5" s="51"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A6" s="229"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="99" t="s">
         <v>57</v>
       </c>
@@ -5964,7 +6588,7 @@
       <c r="AZ6" s="51"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" s="229"/>
+      <c r="A7" s="230"/>
       <c r="B7" s="99" t="s">
         <v>58</v>
       </c>
@@ -6093,7 +6717,7 @@
       <c r="AZ7" s="51"/>
     </row>
     <row r="8" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="101" t="s">
         <v>59</v>
       </c>
@@ -6278,7 +6902,7 @@
       <c r="AZ9" s="51"/>
     </row>
     <row r="10" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="226" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="113" t="s">
@@ -6379,7 +7003,7 @@
       <c r="AV10" s="199"/>
     </row>
     <row r="11" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="226"/>
+      <c r="A11" s="227"/>
       <c r="B11" s="99" t="s">
         <v>54</v>
       </c>
@@ -6474,7 +7098,7 @@
       <c r="AV11" s="199"/>
     </row>
     <row r="12" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="226"/>
+      <c r="A12" s="227"/>
       <c r="B12" s="99" t="s">
         <v>55</v>
       </c>
@@ -6567,7 +7191,7 @@
       <c r="AV12" s="199"/>
     </row>
     <row r="13" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="226"/>
+      <c r="A13" s="227"/>
       <c r="B13" s="99" t="s">
         <v>60</v>
       </c>
@@ -6662,7 +7286,7 @@
       <c r="AV13" s="199"/>
     </row>
     <row r="14" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="226"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="99" t="s">
         <v>61</v>
       </c>
@@ -6757,7 +7381,7 @@
       <c r="AV14" s="199"/>
     </row>
     <row r="15" spans="1:52" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="226"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="99" t="s">
         <v>62</v>
       </c>
@@ -6850,7 +7474,7 @@
       <c r="AV15" s="199"/>
     </row>
     <row r="16" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="227"/>
+      <c r="A16" s="228"/>
       <c r="B16" s="101" t="s">
         <v>63</v>
       </c>
@@ -7411,7 +8035,7 @@
       <c r="G23" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="231" t="s">
+      <c r="H23" s="222" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="129" t="s">
@@ -8214,4 +8838,2654 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5D5B2-6AFC-2849-95CF-105BBF10FDF4}">
+  <dimension ref="A1:AD49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="243" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="244" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="245" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="159" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="159" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="159" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="158" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="157" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="304" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="306"/>
+      <c r="K3" s="304" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="306"/>
+      <c r="U3" s="351" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="304" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="306"/>
+      <c r="AD3" s="351" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B4" s="246" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="247" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="247" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="247" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="247" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="246" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="292" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="242" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="293" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="352" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="362" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="352" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="337" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="248" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="352" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="368" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B5" s="249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="249" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="281" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="353" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="362" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="353" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="281" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="353" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="362" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B6" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="281" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="362" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="281" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="362" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B7" s="249" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="250"/>
+      <c r="J7" s="249" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="281"/>
+      <c r="L7" s="232"/>
+      <c r="M7" s="232"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="250"/>
+      <c r="T7" s="353" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="362"/>
+      <c r="X7" s="353" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="250"/>
+      <c r="AC7" s="353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="362"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B8" s="249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="249" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="281" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="362" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="281" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="250" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="362" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B9" s="249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="232"/>
+      <c r="E9" s="234" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="234"/>
+      <c r="G9" s="251"/>
+      <c r="J9" s="249" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="270"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="233"/>
+      <c r="Q9" s="285"/>
+      <c r="T9" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="363"/>
+      <c r="X9" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="281"/>
+      <c r="Z9" s="250"/>
+      <c r="AC9" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B10" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="286" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="354" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="364" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="354" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="358" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="359" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="354" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="370" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B11" s="249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="233"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="251"/>
+      <c r="J11" s="249" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="270"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="233"/>
+      <c r="Q11" s="285"/>
+      <c r="T11" s="353" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="363"/>
+      <c r="X11" s="353" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="281"/>
+      <c r="Z11" s="250"/>
+      <c r="AC11" s="353" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B12" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="233"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="251"/>
+      <c r="J12" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="270"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="233"/>
+      <c r="P12" s="233"/>
+      <c r="Q12" s="285"/>
+      <c r="T12" s="353" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="363"/>
+      <c r="X12" s="353" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="281"/>
+      <c r="Z12" s="250"/>
+      <c r="AC12" s="353" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12" s="369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B13" s="254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="237"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="255" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="254" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="287" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="288"/>
+      <c r="T13" s="355" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="365"/>
+      <c r="X13" s="355" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="360" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="361" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC13" s="355" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="371" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B14" s="249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="233"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="251" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="249" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="270" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="233"/>
+      <c r="N14" s="233"/>
+      <c r="O14" s="233"/>
+      <c r="P14" s="233"/>
+      <c r="Q14" s="285"/>
+      <c r="T14" s="353" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="363"/>
+      <c r="X14" s="353" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="281"/>
+      <c r="Z14" s="250"/>
+      <c r="AC14" s="353" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="362"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B15" s="252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="252" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="286" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="354" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="364" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="354" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="358" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="359" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="354" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="370" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B16" s="254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="237"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="239" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="239" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="255" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="254" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="287" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="237" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="289"/>
+      <c r="T16" s="355" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="366"/>
+      <c r="X16" s="355" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="360" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="361" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="355" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="371" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B17" s="252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="252" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="286" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="354" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="364" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="354" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="358" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="359" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="354" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="370" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B18" s="252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="252" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="286" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="253" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="354" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="364" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="354" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="358" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="359" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="354" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="370" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B19" s="249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="234" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="234" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="251" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="249" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="270" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="285"/>
+      <c r="T19" s="353" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="362"/>
+      <c r="X19" s="353" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="281"/>
+      <c r="Z19" s="250"/>
+      <c r="AC19" s="353" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="362"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B20" s="257" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="233"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="251"/>
+      <c r="J20" s="257" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="270"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="233"/>
+      <c r="P20" s="233"/>
+      <c r="Q20" s="285"/>
+      <c r="T20" s="356" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="362"/>
+      <c r="X20" s="356" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="281"/>
+      <c r="Z20" s="250"/>
+      <c r="AC20" s="356" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" s="369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B21" s="249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="233"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="234" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="234" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="251" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="249" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="270" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="285"/>
+      <c r="T21" s="353" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="362"/>
+      <c r="X21" s="353" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="281"/>
+      <c r="Z21" s="250"/>
+      <c r="AC21" s="353" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD21" s="369" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B22" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="233"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="251"/>
+      <c r="J22" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="270"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="233"/>
+      <c r="N22" s="233"/>
+      <c r="O22" s="233"/>
+      <c r="P22" s="233"/>
+      <c r="Q22" s="285"/>
+      <c r="T22" s="353" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" s="362"/>
+      <c r="X22" s="353" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="281"/>
+      <c r="Z22" s="250"/>
+      <c r="AC22" s="353" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD22" s="362"/>
+    </row>
+    <row r="23" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="261"/>
+      <c r="J23" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="271"/>
+      <c r="L23" s="290"/>
+      <c r="M23" s="290"/>
+      <c r="N23" s="290"/>
+      <c r="O23" s="290"/>
+      <c r="P23" s="290"/>
+      <c r="Q23" s="291"/>
+      <c r="T23" s="357" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="367"/>
+      <c r="X23" s="357" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" s="339"/>
+      <c r="Z23" s="345"/>
+      <c r="AC23" s="357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" s="367"/>
+    </row>
+    <row r="24" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="307" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="308"/>
+      <c r="E24" s="308"/>
+      <c r="F24" s="308"/>
+      <c r="G24" s="312"/>
+      <c r="K24" s="307" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="308"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="308"/>
+      <c r="O24" s="308"/>
+      <c r="P24" s="308"/>
+      <c r="Q24" s="312"/>
+      <c r="U24" s="377" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" s="332"/>
+      <c r="Y24" s="307" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z24" s="312"/>
+      <c r="AD24" s="351" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25" s="226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="265">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D25" s="262">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E25" s="263">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="F25" s="262">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="G25" s="264">
+        <v>0.81</v>
+      </c>
+      <c r="I25" s="226" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="278"/>
+      <c r="L25" s="279"/>
+      <c r="M25" s="279"/>
+      <c r="N25" s="279"/>
+      <c r="O25" s="279"/>
+      <c r="P25" s="279"/>
+      <c r="Q25" s="280"/>
+      <c r="S25" s="226" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="382"/>
+      <c r="W25" s="226" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="278"/>
+      <c r="Z25" s="341"/>
+      <c r="AB25" s="226" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD25" s="380"/>
+    </row>
+    <row r="26" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="228"/>
+      <c r="B26" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="318">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D26" s="319">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E26" s="320">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F26" s="319">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G26" s="321">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I26" s="228"/>
+      <c r="J26" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="282"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="283"/>
+      <c r="Q26" s="284"/>
+      <c r="S26" s="228"/>
+      <c r="T26" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="372"/>
+      <c r="W26" s="228"/>
+      <c r="X26" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="282"/>
+      <c r="Z26" s="342"/>
+      <c r="AB26" s="227"/>
+      <c r="AC26" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD26" s="387"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="265">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D27" s="262">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E27" s="262">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="F27" s="263">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G27" s="264">
+        <v>0.92</v>
+      </c>
+      <c r="I27" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="278"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="279"/>
+      <c r="P27" s="279"/>
+      <c r="Q27" s="280"/>
+      <c r="S27" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="382"/>
+      <c r="W27" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" s="278"/>
+      <c r="Z27" s="341"/>
+      <c r="AB27" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD27" s="382"/>
+    </row>
+    <row r="28" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="228"/>
+      <c r="B28" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="318">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D28" s="319">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E28" s="319">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F28" s="320">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G28" s="321">
+        <v>0.89</v>
+      </c>
+      <c r="I28" s="228"/>
+      <c r="J28" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="282"/>
+      <c r="L28" s="283"/>
+      <c r="M28" s="283"/>
+      <c r="N28" s="283"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="283"/>
+      <c r="Q28" s="284"/>
+      <c r="S28" s="228"/>
+      <c r="T28" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="372"/>
+      <c r="W28" s="228"/>
+      <c r="X28" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="282"/>
+      <c r="Z28" s="342"/>
+      <c r="AB28" s="228"/>
+      <c r="AC28" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD28" s="372"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29" s="226" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="265">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D29" s="262">
+        <v>0.91</v>
+      </c>
+      <c r="E29" s="262">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F29" s="263">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G29" s="264">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I29" s="226" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="278"/>
+      <c r="L29" s="279"/>
+      <c r="M29" s="279"/>
+      <c r="N29" s="279"/>
+      <c r="O29" s="279"/>
+      <c r="P29" s="279"/>
+      <c r="Q29" s="280"/>
+      <c r="S29" s="226" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="382"/>
+      <c r="W29" s="226" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="278"/>
+      <c r="Z29" s="341"/>
+      <c r="AB29" s="227" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="380"/>
+    </row>
+    <row r="30" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="228"/>
+      <c r="B30" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="318">
+        <v>0.874</v>
+      </c>
+      <c r="D30" s="319">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E30" s="319">
+        <v>0.878</v>
+      </c>
+      <c r="F30" s="320">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G30" s="321">
+        <v>0.877</v>
+      </c>
+      <c r="I30" s="228"/>
+      <c r="J30" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="282"/>
+      <c r="L30" s="283"/>
+      <c r="M30" s="283"/>
+      <c r="N30" s="283"/>
+      <c r="O30" s="283"/>
+      <c r="P30" s="283"/>
+      <c r="Q30" s="284"/>
+      <c r="S30" s="228"/>
+      <c r="T30" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="372"/>
+      <c r="W30" s="228"/>
+      <c r="X30" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="282"/>
+      <c r="Z30" s="342"/>
+      <c r="AB30" s="227"/>
+      <c r="AC30" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD30" s="387"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A31" s="226" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="265">
+        <v>0.94</v>
+      </c>
+      <c r="D31" s="262">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E31" s="262">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F31" s="322">
+        <v>0.97</v>
+      </c>
+      <c r="G31" s="264">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="I31" s="226" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="337">
+        <v>0.998</v>
+      </c>
+      <c r="L31" s="247">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M31" s="247">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N31" s="247">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="O31" s="262">
+        <v>0.99</v>
+      </c>
+      <c r="P31" s="247">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="Q31" s="338">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S31" s="226" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="368">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="W31" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="X31" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="292">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Z31" s="293">
+        <v>0.97</v>
+      </c>
+      <c r="AB31" s="226" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC31" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="382"/>
+    </row>
+    <row r="32" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="228"/>
+      <c r="B32" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="318">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D32" s="319">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E32" s="319">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F32" s="323">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G32" s="321">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I32" s="228"/>
+      <c r="J32" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="339">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L32" s="259">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M32" s="259">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="N32" s="319">
+        <v>0.92</v>
+      </c>
+      <c r="O32" s="259">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="P32" s="259">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="Q32" s="340">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="S32" s="228"/>
+      <c r="T32" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" s="367">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="W32" s="227"/>
+      <c r="X32" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y32" s="333">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="Z32" s="334">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="AB32" s="228"/>
+      <c r="AC32" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD32" s="372"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="265">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D33" s="262">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E33" s="324">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F33" s="263">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G33" s="264">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I33" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="278"/>
+      <c r="L33" s="279"/>
+      <c r="M33" s="279"/>
+      <c r="N33" s="279"/>
+      <c r="O33" s="279"/>
+      <c r="P33" s="279"/>
+      <c r="Q33" s="341"/>
+      <c r="S33" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="T33" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="382"/>
+      <c r="W33" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="X33" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y33" s="278"/>
+      <c r="Z33" s="341"/>
+      <c r="AB33" s="227" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC33" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD33" s="380"/>
+    </row>
+    <row r="34" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="228"/>
+      <c r="B34" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="318">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D34" s="319">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E34" s="325">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F34" s="320">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G34" s="321">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="I34" s="228"/>
+      <c r="J34" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="282"/>
+      <c r="L34" s="283"/>
+      <c r="M34" s="283"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="342"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="372"/>
+      <c r="W34" s="228"/>
+      <c r="X34" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y34" s="282"/>
+      <c r="Z34" s="342"/>
+      <c r="AB34" s="227"/>
+      <c r="AC34" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD34" s="387"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A35" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="265">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D35" s="262">
+        <v>0.92</v>
+      </c>
+      <c r="E35" s="322">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F35" s="262">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G35" s="326">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I35" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="343">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L35" s="247">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M35" s="247">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="N35" s="247">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="O35" s="247">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="P35" s="247">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="Q35" s="248">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="S35" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="383">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="W35" s="227" t="s">
+        <v>18</v>
+      </c>
+      <c r="X35" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y35" s="386">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Z35" s="314">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="AB35" s="226" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD35" s="382"/>
+    </row>
+    <row r="36" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="228"/>
+      <c r="B36" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="318">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D36" s="319">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E36" s="323">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="F36" s="319">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G36" s="327">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I36" s="228"/>
+      <c r="J36" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="344">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="L36" s="259">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M36" s="259">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N36" s="259">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="O36" s="259">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="P36" s="259">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="Q36" s="345">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="S36" s="228"/>
+      <c r="T36" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" s="384">
+        <v>0.91</v>
+      </c>
+      <c r="W36" s="227"/>
+      <c r="X36" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y36" s="385">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="Z36" s="313">
+        <v>0.89</v>
+      </c>
+      <c r="AB36" s="228"/>
+      <c r="AC36" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD36" s="372"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A37" s="226" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="265">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D37" s="262">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E37" s="262">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F37" s="262">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G37" s="328">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I37" s="226" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="337">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="L37" s="247">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M37" s="346">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="N37" s="247">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="O37" s="247">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="P37" s="247">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="Q37" s="248">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="S37" s="226" t="s">
+        <v>19</v>
+      </c>
+      <c r="T37" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="368">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="W37" s="226" t="s">
+        <v>19</v>
+      </c>
+      <c r="X37" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y37" s="268">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="Z37" s="328">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AB37" s="227" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC37" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD37" s="389">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="228"/>
+      <c r="B38" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="318">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D38" s="319">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E38" s="319">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F38" s="319">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G38" s="329">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I38" s="228"/>
+      <c r="J38" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="339">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L38" s="259">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="M38" s="320">
+        <v>0.92</v>
+      </c>
+      <c r="N38" s="259">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O38" s="259">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="P38" s="259">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="Q38" s="345">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="S38" s="228"/>
+      <c r="T38" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U38" s="367">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="W38" s="228"/>
+      <c r="X38" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y38" s="271">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="Z38" s="329">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AB38" s="227"/>
+      <c r="AC38" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD38" s="388">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A39" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="330"/>
+      <c r="D39" s="330"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="331"/>
+      <c r="I39" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="266" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="278"/>
+      <c r="L39" s="279"/>
+      <c r="M39" s="279"/>
+      <c r="N39" s="279"/>
+      <c r="O39" s="279"/>
+      <c r="P39" s="279"/>
+      <c r="Q39" s="280"/>
+      <c r="S39" s="227" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="380"/>
+      <c r="W39" s="227" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" s="381" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y39" s="335"/>
+      <c r="Z39" s="336"/>
+      <c r="AB39" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC39" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD39" s="390">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="228"/>
+      <c r="B40" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="277"/>
+      <c r="I40" s="228"/>
+      <c r="J40" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="282"/>
+      <c r="L40" s="283"/>
+      <c r="M40" s="283"/>
+      <c r="N40" s="283"/>
+      <c r="O40" s="283"/>
+      <c r="P40" s="283"/>
+      <c r="Q40" s="284"/>
+      <c r="S40" s="228"/>
+      <c r="T40" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" s="372"/>
+      <c r="W40" s="228"/>
+      <c r="X40" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y40" s="282"/>
+      <c r="Z40" s="342"/>
+      <c r="AB40" s="228"/>
+      <c r="AC40" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD40" s="391">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="315" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="316"/>
+      <c r="E41" s="316"/>
+      <c r="F41" s="316"/>
+      <c r="G41" s="317"/>
+      <c r="K41" s="315" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="316"/>
+      <c r="M41" s="316"/>
+      <c r="N41" s="316"/>
+      <c r="O41" s="316"/>
+      <c r="P41" s="316"/>
+      <c r="Q41" s="317"/>
+      <c r="U41" s="351" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41" s="350"/>
+      <c r="Y41" s="304" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z41" s="306"/>
+      <c r="AD41" s="378" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B42" s="273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="269">
+        <f>1-C26/C25</f>
+        <v>1.2610340479193294E-3</v>
+      </c>
+      <c r="D42" s="184">
+        <f>1-D26/D25</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="184">
+        <f>1-E26/E25</f>
+        <v>2.4660912453761119E-3</v>
+      </c>
+      <c r="F42" s="184">
+        <f>1-F26/F25</f>
+        <v>2.4721878862793423E-3</v>
+      </c>
+      <c r="G42" s="185">
+        <f>1-G26/G25</f>
+        <v>1.2345679012345512E-3</v>
+      </c>
+      <c r="J42" s="273" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="296"/>
+      <c r="L42" s="297"/>
+      <c r="M42" s="297"/>
+      <c r="N42" s="297"/>
+      <c r="O42" s="297"/>
+      <c r="P42" s="297"/>
+      <c r="Q42" s="298"/>
+      <c r="T42" s="347" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="373"/>
+      <c r="X42" s="347" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="299"/>
+      <c r="Z42" s="300"/>
+      <c r="AC42" s="347" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD42" s="373"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B43" s="274" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="241">
+        <f>1-C28/C27</f>
+        <v>4.2998897464167629E-2</v>
+      </c>
+      <c r="D43" s="182">
+        <f>1-D28/D27</f>
+        <v>2.6402640264026389E-2</v>
+      </c>
+      <c r="E43" s="182">
+        <f>1-E28/E27</f>
+        <v>3.6105032822757122E-2</v>
+      </c>
+      <c r="F43" s="182">
+        <f>1-F28/F27</f>
+        <v>3.1385281385281405E-2</v>
+      </c>
+      <c r="G43" s="187">
+        <f>1-G28/G27</f>
+        <v>3.2608695652173947E-2</v>
+      </c>
+      <c r="J43" s="274" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="299"/>
+      <c r="L43" s="294"/>
+      <c r="M43" s="294"/>
+      <c r="N43" s="294"/>
+      <c r="O43" s="294"/>
+      <c r="P43" s="294"/>
+      <c r="Q43" s="300"/>
+      <c r="T43" s="348" t="s">
+        <v>14</v>
+      </c>
+      <c r="U43" s="373"/>
+      <c r="X43" s="348" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y43" s="299"/>
+      <c r="Z43" s="300"/>
+      <c r="AC43" s="348" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD43" s="373"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B44" s="274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="241">
+        <f>1-C30/C29</f>
+        <v>7.4152542372881269E-2</v>
+      </c>
+      <c r="D44" s="182">
+        <f>1-D30/D29</f>
+        <v>2.5274725274725296E-2</v>
+      </c>
+      <c r="E44" s="182">
+        <f>1-E30/E29</f>
+        <v>9.2975206611570216E-2</v>
+      </c>
+      <c r="F44" s="182">
+        <f>1-F30/F29</f>
+        <v>8.3850931677018625E-2</v>
+      </c>
+      <c r="G44" s="187">
+        <f>1-G30/G29</f>
+        <v>9.213250517598337E-2</v>
+      </c>
+      <c r="J44" s="274" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="299"/>
+      <c r="L44" s="294"/>
+      <c r="M44" s="294"/>
+      <c r="N44" s="294"/>
+      <c r="O44" s="294"/>
+      <c r="P44" s="294"/>
+      <c r="Q44" s="300"/>
+      <c r="T44" s="348" t="s">
+        <v>15</v>
+      </c>
+      <c r="U44" s="373"/>
+      <c r="X44" s="348" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y44" s="299"/>
+      <c r="Z44" s="300"/>
+      <c r="AC44" s="348" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD44" s="373"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B45" s="274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="241">
+        <f>1-C32/C31</f>
+        <v>3.5106382978723372E-2</v>
+      </c>
+      <c r="D45" s="182">
+        <f>1-D32/D31</f>
+        <v>2.2678185745140356E-2</v>
+      </c>
+      <c r="E45" s="182">
+        <f>1-E32/E31</f>
+        <v>5.0308008213552302E-2</v>
+      </c>
+      <c r="F45" s="216">
+        <f>1-F32/F31</f>
+        <v>4.3298969072164906E-2</v>
+      </c>
+      <c r="G45" s="187">
+        <f>1-G32/G31</f>
+        <v>4.9382716049382602E-2</v>
+      </c>
+      <c r="J45" s="274" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="195">
+        <f>1-K32/K31</f>
+        <v>7.5150300601202313E-2</v>
+      </c>
+      <c r="L45" s="295">
+        <f>1-L32/L31</f>
+        <v>6.1287027579162379E-2</v>
+      </c>
+      <c r="M45" s="295">
+        <f>1-M32/M31</f>
+        <v>5.7435897435897387E-2</v>
+      </c>
+      <c r="N45" s="295">
+        <f>1-N32/N31</f>
+        <v>6.8825910931174072E-2</v>
+      </c>
+      <c r="O45" s="295">
+        <f>1-O32/O31</f>
+        <v>6.7676767676767668E-2</v>
+      </c>
+      <c r="P45" s="295">
+        <f>1-P32/P31</f>
+        <v>5.7851239669421406E-2</v>
+      </c>
+      <c r="Q45" s="196">
+        <f>1-Q32/Q31</f>
+        <v>2.6824034334763991E-2</v>
+      </c>
+      <c r="T45" s="348" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="374">
+        <f>1-U32/U31</f>
+        <v>1.5184381778741929E-2</v>
+      </c>
+      <c r="X45" s="348" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="195">
+        <f>1-Y32/Y31</f>
+        <v>4.658385093167694E-2</v>
+      </c>
+      <c r="Z45" s="196">
+        <f>1-Z32/Z31</f>
+        <v>7.0103092783505128E-2</v>
+      </c>
+      <c r="AC45" s="348" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD45" s="373"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B46" s="274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="241">
+        <f>1-C34/C33</f>
+        <v>2.4968789013732895E-3</v>
+      </c>
+      <c r="D46" s="182">
+        <f>MAX(1-D34/D33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="182">
+        <f>1-E34/E33</f>
+        <v>2.4449877750610804E-3</v>
+      </c>
+      <c r="F46" s="182">
+        <f>1-F34/F33</f>
+        <v>1.223990208078285E-3</v>
+      </c>
+      <c r="G46" s="187">
+        <f>1-G34/G33</f>
+        <v>2.450980392156854E-3</v>
+      </c>
+      <c r="J46" s="274" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="299"/>
+      <c r="L46" s="294"/>
+      <c r="M46" s="294"/>
+      <c r="N46" s="294"/>
+      <c r="O46" s="294"/>
+      <c r="P46" s="294"/>
+      <c r="Q46" s="300"/>
+      <c r="T46" s="348" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" s="373"/>
+      <c r="X46" s="348" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y46" s="299"/>
+      <c r="Z46" s="300"/>
+      <c r="AC46" s="348" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD46" s="373"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B47" s="274" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="241">
+        <f>1-C36/C35</f>
+        <v>3.0949839914621191E-2</v>
+      </c>
+      <c r="D47" s="182">
+        <f>1-D36/D35</f>
+        <v>1.413043478260867E-2</v>
+      </c>
+      <c r="E47" s="216">
+        <f>1-E36/E35</f>
+        <v>4.6986721144024468E-2</v>
+      </c>
+      <c r="F47" s="182">
+        <f>1-F36/F35</f>
+        <v>4.2181069958847628E-2</v>
+      </c>
+      <c r="G47" s="187">
+        <f>1-G36/G35</f>
+        <v>4.2137718396711099E-2</v>
+      </c>
+      <c r="J47" s="274" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="195">
+        <f>1-K36/K35</f>
+        <v>4.3859649122807154E-3</v>
+      </c>
+      <c r="L47" s="295">
+        <f>1-L36/L35</f>
+        <v>2.2026431718061845E-3</v>
+      </c>
+      <c r="M47" s="295">
+        <f>1-M36/M35</f>
+        <v>3.3076074972436809E-3</v>
+      </c>
+      <c r="N47" s="295">
+        <f>1-N36/N35</f>
+        <v>5.5005500550054931E-3</v>
+      </c>
+      <c r="O47" s="295">
+        <f>1-O36/O35</f>
+        <v>4.3907793633369829E-3</v>
+      </c>
+      <c r="P47" s="295">
+        <f>1-P36/P35</f>
+        <v>4.4296788482834915E-3</v>
+      </c>
+      <c r="Q47" s="196">
+        <f>1-Q36/Q35</f>
+        <v>1.1198208286674616E-3</v>
+      </c>
+      <c r="T47" s="348" t="s">
+        <v>18</v>
+      </c>
+      <c r="U47" s="374">
+        <f>1-U36/U35</f>
+        <v>1.3015184381778733E-2</v>
+      </c>
+      <c r="X47" s="348" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y47" s="376">
+        <f>1-Y36/Y35</f>
+        <v>2.9288702928870203E-2</v>
+      </c>
+      <c r="Z47" s="196">
+        <f>1-Z36/Z35</f>
+        <v>4.4742729306487261E-3</v>
+      </c>
+      <c r="AC47" s="348" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD47" s="373"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="274" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="241">
+        <f>1-C38/C37</f>
+        <v>3.4482758620689724E-2</v>
+      </c>
+      <c r="D48" s="182">
+        <f>1-D38/D37</f>
+        <v>1.2048192771084376E-2</v>
+      </c>
+      <c r="E48" s="182">
+        <f>1-E38/E37</f>
+        <v>5.0672182006204713E-2</v>
+      </c>
+      <c r="F48" s="182">
+        <f>1-F38/F37</f>
+        <v>2.2151898734177111E-2</v>
+      </c>
+      <c r="G48" s="272">
+        <f>1-G38/G37</f>
+        <v>2.9442691903259655E-2</v>
+      </c>
+      <c r="J48" s="274" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="195">
+        <f>1-K38/K37</f>
+        <v>1.0764262648008671E-2</v>
+      </c>
+      <c r="L48" s="295">
+        <f>1-L38/L37</f>
+        <v>8.6580086580086979E-3</v>
+      </c>
+      <c r="M48" s="295">
+        <f>1-M38/M37</f>
+        <v>7.5512405609493571E-3</v>
+      </c>
+      <c r="N48" s="295">
+        <f>1-N38/N37</f>
+        <v>9.7087378640776656E-3</v>
+      </c>
+      <c r="O48" s="295">
+        <f>1-O38/O37</f>
+        <v>9.6982758620689502E-3</v>
+      </c>
+      <c r="P48" s="295">
+        <f>1-P38/P37</f>
+        <v>1.0940919037199182E-2</v>
+      </c>
+      <c r="Q48" s="196">
+        <f>1-Q38/Q37</f>
+        <v>5.5370985603543366E-3</v>
+      </c>
+      <c r="T48" s="348" t="s">
+        <v>19</v>
+      </c>
+      <c r="U48" s="374">
+        <f>1-U38/U37</f>
+        <v>1.6322089227421177E-2</v>
+      </c>
+      <c r="X48" s="348" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y48" s="195">
+        <f>1-Y38/Y37</f>
+        <v>1.1714589989350266E-2</v>
+      </c>
+      <c r="Z48" s="272">
+        <f>1-Z38/Z37</f>
+        <v>7.6754385964912242E-3</v>
+      </c>
+      <c r="AC48" s="348" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD48" s="374">
+        <f>1-AD38/AD37</f>
+        <v>3.1249999999999889E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="275" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="276"/>
+      <c r="D49" s="276"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="276"/>
+      <c r="G49" s="277"/>
+      <c r="J49" s="275" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="301"/>
+      <c r="L49" s="302"/>
+      <c r="M49" s="302"/>
+      <c r="N49" s="302"/>
+      <c r="O49" s="302"/>
+      <c r="P49" s="302"/>
+      <c r="Q49" s="303"/>
+      <c r="T49" s="349" t="s">
+        <v>46</v>
+      </c>
+      <c r="U49" s="375"/>
+      <c r="X49" s="349" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y49" s="301"/>
+      <c r="Z49" s="303"/>
+      <c r="AC49" s="349" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD49" s="379">
+        <f>1-AD40/AD39</f>
+        <v>4.8533872598584438E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="K3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D46" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Supervised_Learning/Scorecard - F1 values.xlsx
+++ b/Supervised_Learning/Scorecard - F1 values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Documents/GitHub/DSaML_Projects/Supervised_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D851B106-C901-614D-8931-37FA9357F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05AA942-2636-3949-A9D5-AB972D64151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="680" windowWidth="32920" windowHeight="20400" activeTab="2" xr2:uid="{36C6B408-B3DB-4C98-8193-63E0F9F2EE8D}"/>
   </bookViews>
